--- a/Data/Aggregated.xlsx
+++ b/Data/Aggregated.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ariba\OneDrive\Documents\Programing\Producer and Consumer Prices APT\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ariba\OneDrive\Documents\Programing\APT\APT-UKR-Producer-Consumer-prices\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{064D231D-3398-48B7-AC14-1EEF1B7DCBDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27FE03E5-6029-427F-BB0C-53178FC46E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="25">
   <si>
     <t>Product</t>
   </si>
@@ -304,7 +304,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment horizontal="left" vertical="justify" wrapText="1" indent="2"/>
@@ -360,20 +360,19 @@
       <alignment horizontal="left" vertical="justify" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Акцент1" xfId="15" xr:uid="{39212BD2-B208-4898-AC25-6DD9A9DACD99}"/>
     <cellStyle name="20% - Акцент2" xfId="12" xr:uid="{AD651107-096D-4C94-9036-123C04BB49AC}"/>
     <cellStyle name="20% - Акцент3" xfId="16" xr:uid="{F34DD95A-8BE2-4711-83D0-6B77BB32E462}"/>
@@ -409,6 +408,7 @@
     <cellStyle name="Обычный 2 2" xfId="29" xr:uid="{6AAC6003-6C75-4609-8C24-637F6F2C6AA4}"/>
     <cellStyle name="Обычный 2 3" xfId="38" xr:uid="{9E655967-9BCA-4227-B5F1-50AED4D603DA}"/>
     <cellStyle name="Обычный 2 4" xfId="28" xr:uid="{C53FC494-103A-4B0F-8995-F54F53471777}"/>
+    <cellStyle name="Обычный 2 5" xfId="42" xr:uid="{7E3F88F0-9473-4790-8ABC-3DBF38D74ED4}"/>
     <cellStyle name="Обычный 3" xfId="3" xr:uid="{1E22370A-799E-4021-82D8-52DD2F4CB9CD}"/>
     <cellStyle name="Обычный 3 2" xfId="4" xr:uid="{00AC4913-BEE2-4CB1-90DC-512243FDCAB1}"/>
     <cellStyle name="Обычный 3 2 2" xfId="36" xr:uid="{7359CAB7-B9FF-4865-9B2E-3FC48D08E29E}"/>
@@ -693,10 +693,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O137"/>
+  <dimension ref="A1:O152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+      <selection activeCell="F147" sqref="F147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1136,46 +1136,46 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C10">
-        <v>2013</v>
+        <v>2021</v>
       </c>
       <c r="D10">
-        <v>30353.91</v>
+        <v>78822.75</v>
       </c>
       <c r="E10">
-        <v>29318.86</v>
+        <v>79246.320000000007</v>
       </c>
       <c r="F10">
-        <v>29661.34</v>
+        <v>81502</v>
       </c>
       <c r="G10">
-        <v>30062.1</v>
+        <v>82077.8</v>
       </c>
       <c r="H10">
-        <v>30518.29</v>
+        <v>82207.53</v>
       </c>
       <c r="I10">
-        <v>30345.72</v>
+        <v>85101.4</v>
       </c>
       <c r="J10">
-        <v>31280.09</v>
+        <v>85903.33</v>
       </c>
       <c r="K10">
-        <v>31772.46</v>
+        <v>86549.1</v>
       </c>
       <c r="L10">
-        <v>31568.68</v>
+        <v>88655</v>
       </c>
       <c r="M10">
-        <v>30906.99</v>
+        <v>89982.04</v>
       </c>
       <c r="N10">
-        <v>30020.63</v>
+        <v>93725.74</v>
       </c>
       <c r="O10">
-        <v>30239.439999999999</v>
+        <v>94821.21</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1186,43 +1186,43 @@
         <v>16</v>
       </c>
       <c r="C11">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D11">
-        <v>29091.15</v>
+        <v>30353.91</v>
       </c>
       <c r="E11">
-        <v>28824.65</v>
+        <v>29318.86</v>
       </c>
       <c r="F11">
-        <v>29227.279999999999</v>
+        <v>29661.34</v>
       </c>
       <c r="G11">
-        <v>34808.839999999997</v>
+        <v>30062.1</v>
       </c>
       <c r="H11">
-        <v>33768.9</v>
+        <v>30518.29</v>
       </c>
       <c r="I11">
-        <v>34708.18</v>
+        <v>30345.72</v>
       </c>
       <c r="J11">
-        <v>35049.870000000003</v>
+        <v>31280.09</v>
       </c>
       <c r="K11">
-        <v>35604.730000000003</v>
+        <v>31772.46</v>
       </c>
       <c r="L11">
-        <v>39269.11</v>
+        <v>31568.68</v>
       </c>
       <c r="M11">
-        <v>37314.769999999997</v>
+        <v>30906.99</v>
       </c>
       <c r="N11">
-        <v>35813.599999999999</v>
+        <v>30020.63</v>
       </c>
       <c r="O11">
-        <v>38081.19</v>
+        <v>30239.439999999999</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1233,43 +1233,43 @@
         <v>16</v>
       </c>
       <c r="C12">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D12">
-        <v>36878.83</v>
+        <v>29091.15</v>
       </c>
       <c r="E12">
-        <v>36681.25</v>
+        <v>28824.65</v>
       </c>
       <c r="F12">
-        <v>41210.51</v>
+        <v>29227.279999999999</v>
       </c>
       <c r="G12">
-        <v>43278.97</v>
+        <v>34808.839999999997</v>
       </c>
       <c r="H12">
-        <v>44113.72</v>
+        <v>33768.9</v>
       </c>
       <c r="I12">
-        <v>44307.83</v>
+        <v>34708.18</v>
       </c>
       <c r="J12">
-        <v>49212.29</v>
+        <v>35049.870000000003</v>
       </c>
       <c r="K12">
-        <v>50040.99</v>
+        <v>35604.730000000003</v>
       </c>
       <c r="L12">
-        <v>48381.38</v>
+        <v>39269.11</v>
       </c>
       <c r="M12">
-        <v>45766.78</v>
+        <v>37314.769999999997</v>
       </c>
       <c r="N12">
-        <v>46398.49</v>
+        <v>35813.599999999999</v>
       </c>
       <c r="O12">
-        <v>44855.6</v>
+        <v>38081.19</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1280,43 +1280,43 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D13">
-        <v>42815.07</v>
+        <v>36878.83</v>
       </c>
       <c r="E13">
-        <v>39515.67</v>
+        <v>36681.25</v>
       </c>
       <c r="F13">
-        <v>42368.9</v>
+        <v>41210.51</v>
       </c>
       <c r="G13">
-        <v>44337.26</v>
+        <v>43278.97</v>
       </c>
       <c r="H13">
-        <v>43640.83</v>
+        <v>44113.72</v>
       </c>
       <c r="I13">
-        <v>42149.36</v>
+        <v>44307.83</v>
       </c>
       <c r="J13">
-        <v>44467.79</v>
+        <v>49212.29</v>
       </c>
       <c r="K13">
-        <v>45021.79</v>
+        <v>50040.99</v>
       </c>
       <c r="L13">
-        <v>47475.27</v>
+        <v>48381.38</v>
       </c>
       <c r="M13">
-        <v>44216.22</v>
+        <v>45766.78</v>
       </c>
       <c r="N13">
-        <v>45432.54</v>
+        <v>46398.49</v>
       </c>
       <c r="O13">
-        <v>47423.49</v>
+        <v>44855.6</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1327,43 +1327,43 @@
         <v>16</v>
       </c>
       <c r="C14">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D14">
-        <v>44211.76</v>
+        <v>42815.07</v>
       </c>
       <c r="E14">
-        <v>47508.84</v>
+        <v>39515.67</v>
       </c>
       <c r="F14">
-        <v>47991.93</v>
+        <v>42368.9</v>
       </c>
       <c r="G14">
-        <v>50020.07</v>
+        <v>44337.26</v>
       </c>
       <c r="H14">
-        <v>52648.69</v>
+        <v>43640.83</v>
       </c>
       <c r="I14">
-        <v>61055.37</v>
+        <v>42149.36</v>
       </c>
       <c r="J14">
-        <v>61395.28</v>
+        <v>44467.79</v>
       </c>
       <c r="K14">
-        <v>63450.07</v>
+        <v>45021.79</v>
       </c>
       <c r="L14">
-        <v>67427.48</v>
+        <v>47475.27</v>
       </c>
       <c r="M14">
-        <v>64410.91</v>
+        <v>44216.22</v>
       </c>
       <c r="N14">
-        <v>64872.58</v>
+        <v>45432.54</v>
       </c>
       <c r="O14">
-        <v>64711.6</v>
+        <v>47423.49</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1374,43 +1374,43 @@
         <v>16</v>
       </c>
       <c r="C15">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D15">
-        <v>65867.33</v>
+        <v>44211.76</v>
       </c>
       <c r="E15">
-        <v>65120.46</v>
+        <v>47508.84</v>
       </c>
       <c r="F15">
-        <v>65683.44</v>
+        <v>47991.93</v>
       </c>
       <c r="G15">
-        <v>69343.320000000007</v>
+        <v>50020.07</v>
       </c>
       <c r="H15">
-        <v>65790</v>
+        <v>52648.69</v>
       </c>
       <c r="I15">
-        <v>66110.66</v>
+        <v>61055.37</v>
       </c>
       <c r="J15">
-        <v>65833.649999999994</v>
+        <v>61395.28</v>
       </c>
       <c r="K15">
-        <v>67611.11</v>
+        <v>63450.07</v>
       </c>
       <c r="L15">
-        <v>70018.259999999995</v>
+        <v>67427.48</v>
       </c>
       <c r="M15">
-        <v>68600.73</v>
+        <v>64410.91</v>
       </c>
       <c r="N15">
-        <v>66015.14</v>
+        <v>64872.58</v>
       </c>
       <c r="O15">
-        <v>66610.94</v>
+        <v>64711.6</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1421,43 +1421,43 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D16">
-        <v>65081.04</v>
+        <v>65867.33</v>
       </c>
       <c r="E16">
-        <v>62985.41</v>
+        <v>65120.46</v>
       </c>
       <c r="F16">
-        <v>62726.93</v>
+        <v>65683.44</v>
       </c>
       <c r="G16">
-        <v>69300.52</v>
+        <v>69343.320000000007</v>
       </c>
       <c r="H16">
-        <v>66263.960000000006</v>
+        <v>65790</v>
       </c>
       <c r="I16">
-        <v>68528.259999999995</v>
+        <v>66110.66</v>
       </c>
       <c r="J16">
-        <v>67098.97</v>
+        <v>65833.649999999994</v>
       </c>
       <c r="K16">
-        <v>68881.759999999995</v>
+        <v>67611.11</v>
       </c>
       <c r="L16">
-        <v>67827.69</v>
+        <v>70018.259999999995</v>
       </c>
       <c r="M16">
-        <v>68036.820000000007</v>
+        <v>68600.73</v>
       </c>
       <c r="N16">
-        <v>66652.84</v>
+        <v>66015.14</v>
       </c>
       <c r="O16">
-        <v>66781.69</v>
+        <v>66610.94</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1468,43 +1468,43 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D17">
-        <v>67009.820000000007</v>
+        <v>65081.04</v>
       </c>
       <c r="E17">
-        <v>65142.22</v>
+        <v>62985.41</v>
       </c>
       <c r="F17">
-        <v>68188.63</v>
+        <v>62726.93</v>
       </c>
       <c r="G17">
-        <v>68954.87</v>
+        <v>69300.52</v>
       </c>
       <c r="H17">
-        <v>67213.03</v>
+        <v>66263.960000000006</v>
       </c>
       <c r="I17">
-        <v>66960.31</v>
+        <v>68528.259999999995</v>
       </c>
       <c r="J17">
-        <v>66419.97</v>
+        <v>67098.97</v>
       </c>
       <c r="K17">
-        <v>70041.67</v>
+        <v>68881.759999999995</v>
       </c>
       <c r="L17">
-        <v>67985.27</v>
+        <v>67827.69</v>
       </c>
       <c r="M17">
-        <v>68552.929999999993</v>
+        <v>68036.820000000007</v>
       </c>
       <c r="N17">
-        <v>66809.47</v>
+        <v>66652.84</v>
       </c>
       <c r="O17">
-        <v>63813.46</v>
+        <v>66781.69</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1512,93 +1512,93 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18">
-        <v>2013</v>
+        <v>2020</v>
       </c>
       <c r="D18">
-        <v>18738.39</v>
+        <v>67009.820000000007</v>
       </c>
       <c r="E18">
-        <v>18460.95</v>
+        <v>65142.22</v>
       </c>
       <c r="F18">
-        <v>18220.560000000001</v>
+        <v>68188.63</v>
       </c>
       <c r="G18">
-        <v>18168.54</v>
+        <v>68954.87</v>
       </c>
       <c r="H18">
-        <v>18386.21</v>
+        <v>67213.03</v>
       </c>
       <c r="I18">
-        <v>18493.810000000001</v>
+        <v>66960.31</v>
       </c>
       <c r="J18">
-        <v>18429.919999999998</v>
+        <v>66419.97</v>
       </c>
       <c r="K18">
-        <v>18333.310000000001</v>
+        <v>70041.67</v>
       </c>
       <c r="L18">
-        <v>18394.23</v>
+        <v>67985.27</v>
       </c>
       <c r="M18">
-        <v>18282.330000000002</v>
+        <v>68552.929999999993</v>
       </c>
       <c r="N18">
-        <v>17826.939999999999</v>
+        <v>66809.47</v>
       </c>
       <c r="O18">
-        <v>17773.13</v>
+        <v>63813.46</v>
       </c>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" t="s">
+      <c r="A19" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19">
-        <v>2014</v>
+      <c r="B19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="3">
+        <v>2021</v>
       </c>
       <c r="D19">
-        <v>17982.91</v>
+        <v>62883.7</v>
       </c>
       <c r="E19">
-        <v>17974.11</v>
+        <v>66352.55</v>
       </c>
       <c r="F19">
-        <v>17814.12</v>
+        <v>65915.38</v>
       </c>
       <c r="G19">
-        <v>18057.89</v>
+        <v>66944.83</v>
       </c>
       <c r="H19">
-        <v>18462.45</v>
+        <v>66555.839999999997</v>
       </c>
       <c r="I19">
-        <v>19693.25</v>
+        <v>67433.62</v>
       </c>
       <c r="J19">
-        <v>21299.21</v>
+        <v>67997.460000000006</v>
       </c>
       <c r="K19">
-        <v>21553.62</v>
+        <v>68908.88</v>
       </c>
       <c r="L19">
-        <v>22624.32</v>
+        <v>69174.67</v>
       </c>
       <c r="M19">
-        <v>23053.61</v>
+        <v>68589.8</v>
       </c>
       <c r="N19">
-        <v>23787.66</v>
+        <v>66058.22</v>
       </c>
       <c r="O19">
-        <v>23803.16</v>
+        <v>68121.27</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1609,43 +1609,43 @@
         <v>17</v>
       </c>
       <c r="C20">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D20">
-        <v>23211.66</v>
+        <v>18738.39</v>
       </c>
       <c r="E20">
-        <v>22753.17</v>
+        <v>18460.95</v>
       </c>
       <c r="F20">
-        <v>25289.95</v>
+        <v>18220.560000000001</v>
       </c>
       <c r="G20">
-        <v>26313.58</v>
+        <v>18168.54</v>
       </c>
       <c r="H20">
-        <v>27022.47</v>
+        <v>18386.21</v>
       </c>
       <c r="I20">
-        <v>27344.89</v>
+        <v>18493.810000000001</v>
       </c>
       <c r="J20">
-        <v>28765.56</v>
+        <v>18429.919999999998</v>
       </c>
       <c r="K20">
-        <v>28881</v>
+        <v>18333.310000000001</v>
       </c>
       <c r="L20">
-        <v>29468.6</v>
+        <v>18394.23</v>
       </c>
       <c r="M20">
-        <v>29697.5</v>
+        <v>18282.330000000002</v>
       </c>
       <c r="N20">
-        <v>29720.86</v>
+        <v>17826.939999999999</v>
       </c>
       <c r="O20">
-        <v>30349.72</v>
+        <v>17773.13</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1656,43 +1656,43 @@
         <v>17</v>
       </c>
       <c r="C21">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D21">
-        <v>29224.92</v>
+        <v>17982.91</v>
       </c>
       <c r="E21">
-        <v>29108.87</v>
+        <v>17974.11</v>
       </c>
       <c r="F21">
-        <v>29543.47</v>
+        <v>17814.12</v>
       </c>
       <c r="G21">
-        <v>29792.240000000002</v>
+        <v>18057.89</v>
       </c>
       <c r="H21">
-        <v>29845.66</v>
+        <v>18462.45</v>
       </c>
       <c r="I21">
-        <v>30677.7</v>
+        <v>19693.25</v>
       </c>
       <c r="J21">
-        <v>31114.44</v>
+        <v>21299.21</v>
       </c>
       <c r="K21">
-        <v>30856.720000000001</v>
+        <v>21553.62</v>
       </c>
       <c r="L21">
-        <v>32053.11</v>
+        <v>22624.32</v>
       </c>
       <c r="M21">
-        <v>32341.41</v>
+        <v>23053.61</v>
       </c>
       <c r="N21">
-        <v>32467.75</v>
+        <v>23787.66</v>
       </c>
       <c r="O21">
-        <v>32406.2</v>
+        <v>23803.16</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1703,43 +1703,43 @@
         <v>17</v>
       </c>
       <c r="C22">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="D22">
-        <v>32620.79</v>
+        <v>23211.66</v>
       </c>
       <c r="E22">
-        <v>33201.69</v>
+        <v>22753.17</v>
       </c>
       <c r="F22">
-        <v>33456.129999999997</v>
+        <v>25289.95</v>
       </c>
       <c r="G22">
-        <v>33975.449999999997</v>
+        <v>26313.58</v>
       </c>
       <c r="H22">
-        <v>34420.58</v>
+        <v>27022.47</v>
       </c>
       <c r="I22">
-        <v>35723.339999999997</v>
+        <v>27344.89</v>
       </c>
       <c r="J22">
-        <v>37828.04</v>
+        <v>28765.56</v>
       </c>
       <c r="K22">
-        <v>39280.46</v>
+        <v>28881</v>
       </c>
       <c r="L22">
-        <v>41888.01</v>
+        <v>29468.6</v>
       </c>
       <c r="M22">
-        <v>41330.639999999999</v>
+        <v>29697.5</v>
       </c>
       <c r="N22">
-        <v>41880.89</v>
+        <v>29720.86</v>
       </c>
       <c r="O22">
-        <v>41481.08</v>
+        <v>30349.72</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1750,43 +1750,43 @@
         <v>17</v>
       </c>
       <c r="C23">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D23">
-        <v>42152.76</v>
+        <v>29224.92</v>
       </c>
       <c r="E23">
-        <v>41405.96</v>
+        <v>29108.87</v>
       </c>
       <c r="F23">
-        <v>42484.22</v>
+        <v>29543.47</v>
       </c>
       <c r="G23">
-        <v>42451.88</v>
+        <v>29792.240000000002</v>
       </c>
       <c r="H23">
-        <v>37987.730000000003</v>
+        <v>29845.66</v>
       </c>
       <c r="I23">
-        <v>38502.57</v>
+        <v>30677.7</v>
       </c>
       <c r="J23">
-        <v>35692.49</v>
+        <v>31114.44</v>
       </c>
       <c r="K23">
-        <v>36240.78</v>
+        <v>30856.720000000001</v>
       </c>
       <c r="L23">
-        <v>37141.730000000003</v>
+        <v>32053.11</v>
       </c>
       <c r="M23">
-        <v>38387.86</v>
+        <v>32341.41</v>
       </c>
       <c r="N23">
-        <v>37769.39</v>
+        <v>32467.75</v>
       </c>
       <c r="O23">
-        <v>37885.08</v>
+        <v>32406.2</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1797,43 +1797,43 @@
         <v>17</v>
       </c>
       <c r="C24">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D24">
-        <v>38523.18</v>
+        <v>32620.79</v>
       </c>
       <c r="E24">
-        <v>38150.480000000003</v>
+        <v>33201.69</v>
       </c>
       <c r="F24">
-        <v>38041.51</v>
+        <v>33456.129999999997</v>
       </c>
       <c r="G24">
-        <v>38896.379999999997</v>
+        <v>33975.449999999997</v>
       </c>
       <c r="H24">
-        <v>39663.919999999998</v>
+        <v>34420.58</v>
       </c>
       <c r="I24">
-        <v>40531.96</v>
+        <v>35723.339999999997</v>
       </c>
       <c r="J24">
-        <v>40657.15</v>
+        <v>37828.04</v>
       </c>
       <c r="K24">
-        <v>39766.31</v>
+        <v>39280.46</v>
       </c>
       <c r="L24">
-        <v>39462.94</v>
+        <v>41888.01</v>
       </c>
       <c r="M24">
-        <v>39058.589999999997</v>
+        <v>41330.639999999999</v>
       </c>
       <c r="N24">
-        <v>38664.58</v>
+        <v>41880.89</v>
       </c>
       <c r="O24">
-        <v>37926.35</v>
+        <v>41481.08</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1844,43 +1844,43 @@
         <v>17</v>
       </c>
       <c r="C25">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D25">
-        <v>36980.68</v>
+        <v>42152.76</v>
       </c>
       <c r="E25">
-        <v>36413.58</v>
+        <v>41405.96</v>
       </c>
       <c r="F25">
-        <v>36426.35</v>
+        <v>42484.22</v>
       </c>
       <c r="G25">
-        <v>35430.620000000003</v>
+        <v>42451.88</v>
       </c>
       <c r="H25">
-        <v>35451.22</v>
+        <v>37987.730000000003</v>
       </c>
       <c r="I25">
-        <v>36500.559999999998</v>
+        <v>38502.57</v>
       </c>
       <c r="J25">
-        <v>37093.85</v>
+        <v>35692.49</v>
       </c>
       <c r="K25">
-        <v>37322.31</v>
+        <v>36240.78</v>
       </c>
       <c r="L25">
-        <v>37539.660000000003</v>
+        <v>37141.730000000003</v>
       </c>
       <c r="M25">
-        <v>39909.19</v>
+        <v>38387.86</v>
       </c>
       <c r="N25">
-        <v>39826.68</v>
+        <v>37769.39</v>
       </c>
       <c r="O25">
-        <v>39989.93</v>
+        <v>37885.08</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -1888,46 +1888,46 @@
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C26">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="D26">
-        <v>5646.46</v>
+        <v>38523.18</v>
       </c>
       <c r="E26">
-        <v>5617.14</v>
+        <v>38150.480000000003</v>
       </c>
       <c r="F26">
-        <v>5640.44</v>
+        <v>38041.51</v>
       </c>
       <c r="G26">
-        <v>5723.68</v>
+        <v>38896.379999999997</v>
       </c>
       <c r="H26">
-        <v>5726.22</v>
+        <v>39663.919999999998</v>
       </c>
       <c r="I26">
-        <v>5752.05</v>
+        <v>40531.96</v>
       </c>
       <c r="J26">
-        <v>5794.65</v>
+        <v>40657.15</v>
       </c>
       <c r="K26">
-        <v>5882.15</v>
+        <v>39766.31</v>
       </c>
       <c r="L26">
-        <v>5971.76</v>
+        <v>39462.94</v>
       </c>
       <c r="M26">
-        <v>6034.43</v>
+        <v>39058.589999999997</v>
       </c>
       <c r="N26">
-        <v>6058.97</v>
+        <v>38664.58</v>
       </c>
       <c r="O26">
-        <v>6123.76</v>
+        <v>37926.35</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -1935,93 +1935,93 @@
         <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C27">
-        <v>2014</v>
+        <v>2020</v>
       </c>
       <c r="D27">
-        <v>6476.1</v>
+        <v>36980.68</v>
       </c>
       <c r="E27">
-        <v>6520.1</v>
+        <v>36413.58</v>
       </c>
       <c r="F27">
-        <v>6574.05</v>
+        <v>36426.35</v>
       </c>
       <c r="G27">
-        <v>6758.82</v>
+        <v>35430.620000000003</v>
       </c>
       <c r="H27">
-        <v>6809.8</v>
+        <v>35451.22</v>
       </c>
       <c r="I27">
-        <v>6807.58</v>
+        <v>36500.559999999998</v>
       </c>
       <c r="J27">
-        <v>6809.94</v>
+        <v>37093.85</v>
       </c>
       <c r="K27">
-        <v>6866.37</v>
+        <v>37322.31</v>
       </c>
       <c r="L27">
-        <v>6959.78</v>
+        <v>37539.660000000003</v>
       </c>
       <c r="M27">
-        <v>7011.56</v>
+        <v>39909.19</v>
       </c>
       <c r="N27">
-        <v>7038.21</v>
+        <v>39826.68</v>
       </c>
       <c r="O27">
-        <v>7207.3</v>
+        <v>39989.93</v>
       </c>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" t="s">
+      <c r="A28" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28">
-        <v>2015</v>
+      <c r="B28" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="3">
+        <v>2021</v>
       </c>
       <c r="D28">
-        <v>7317</v>
+        <v>40853.78</v>
       </c>
       <c r="E28">
-        <v>7343.14</v>
+        <v>42581.11</v>
       </c>
       <c r="F28">
-        <v>7832.64</v>
+        <v>43927.53</v>
       </c>
       <c r="G28">
-        <v>7915.78</v>
+        <v>44660.49</v>
       </c>
       <c r="H28">
-        <v>7993.71</v>
+        <v>45817.49</v>
       </c>
       <c r="I28">
-        <v>8086.36</v>
+        <v>46281.03</v>
       </c>
       <c r="J28">
-        <v>8113.29</v>
+        <v>48042.44</v>
       </c>
       <c r="K28">
-        <v>8224.8700000000008</v>
+        <v>48499.88</v>
       </c>
       <c r="L28">
-        <v>8335.89</v>
+        <v>48716.2</v>
       </c>
       <c r="M28">
-        <v>8504.74</v>
+        <v>49709.06</v>
       </c>
       <c r="N28">
-        <v>8642.07</v>
+        <v>49506.05</v>
       </c>
       <c r="O28">
-        <v>8838.23</v>
+        <v>48800.31</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -2032,43 +2032,43 @@
         <v>19</v>
       </c>
       <c r="C29">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="D29">
-        <v>9498.7999999999993</v>
+        <v>5646.46</v>
       </c>
       <c r="E29">
-        <v>9668.07</v>
+        <v>5617.14</v>
       </c>
       <c r="F29">
-        <v>10078.120000000001</v>
+        <v>5640.44</v>
       </c>
       <c r="G29">
-        <v>9935.3799999999992</v>
+        <v>5723.68</v>
       </c>
       <c r="H29">
-        <v>9906.85</v>
+        <v>5726.22</v>
       </c>
       <c r="I29">
-        <v>10126.14</v>
+        <v>5752.05</v>
       </c>
       <c r="J29">
-        <v>10109.09</v>
+        <v>5794.65</v>
       </c>
       <c r="K29">
-        <v>10198.11</v>
+        <v>5882.15</v>
       </c>
       <c r="L29">
-        <v>10454.85</v>
+        <v>5971.76</v>
       </c>
       <c r="M29">
-        <v>10845.38</v>
+        <v>6034.43</v>
       </c>
       <c r="N29">
-        <v>11090.74</v>
+        <v>6058.97</v>
       </c>
       <c r="O29">
-        <v>11462.38</v>
+        <v>6123.76</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -2079,43 +2079,43 @@
         <v>19</v>
       </c>
       <c r="C30">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="D30">
-        <v>12473.59</v>
+        <v>6476.1</v>
       </c>
       <c r="E30">
-        <v>12705.9</v>
+        <v>6520.1</v>
       </c>
       <c r="F30">
-        <v>12852.98</v>
+        <v>6574.05</v>
       </c>
       <c r="G30">
-        <v>12951.26</v>
+        <v>6758.82</v>
       </c>
       <c r="H30">
-        <v>12931.73</v>
+        <v>6809.8</v>
       </c>
       <c r="I30">
-        <v>12833</v>
+        <v>6807.58</v>
       </c>
       <c r="J30">
-        <v>12959.27</v>
+        <v>6809.94</v>
       </c>
       <c r="K30">
-        <v>13102.14</v>
+        <v>6866.37</v>
       </c>
       <c r="L30">
-        <v>13438.65</v>
+        <v>6959.78</v>
       </c>
       <c r="M30">
-        <v>13841.63</v>
+        <v>7011.56</v>
       </c>
       <c r="N30">
-        <v>14277.23</v>
+        <v>7038.21</v>
       </c>
       <c r="O30">
-        <v>14649.31</v>
+        <v>7207.3</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -2126,43 +2126,43 @@
         <v>19</v>
       </c>
       <c r="C31">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="D31">
-        <v>14767.46</v>
+        <v>7317</v>
       </c>
       <c r="E31">
-        <v>14851.44</v>
+        <v>7343.14</v>
       </c>
       <c r="F31">
-        <v>14961.34</v>
+        <v>7832.64</v>
       </c>
       <c r="G31">
-        <v>15071.07</v>
+        <v>7915.78</v>
       </c>
       <c r="H31">
-        <v>14911.97</v>
+        <v>7993.71</v>
       </c>
       <c r="I31">
-        <v>14833.15</v>
+        <v>8086.36</v>
       </c>
       <c r="J31">
-        <v>14845.9</v>
+        <v>8113.29</v>
       </c>
       <c r="K31">
-        <v>14981.38</v>
+        <v>8224.8700000000008</v>
       </c>
       <c r="L31">
-        <v>15416.43</v>
+        <v>8335.89</v>
       </c>
       <c r="M31">
-        <v>15563.16</v>
+        <v>8504.74</v>
       </c>
       <c r="N31">
-        <v>15960.09</v>
+        <v>8642.07</v>
       </c>
       <c r="O31">
-        <v>16131.07</v>
+        <v>8838.23</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -2173,43 +2173,43 @@
         <v>19</v>
       </c>
       <c r="C32">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="D32">
-        <v>15404.69</v>
+        <v>9498.7999999999993</v>
       </c>
       <c r="E32">
-        <v>15444.83</v>
+        <v>9668.07</v>
       </c>
       <c r="F32">
-        <v>15615.21</v>
+        <v>10078.120000000001</v>
       </c>
       <c r="G32">
-        <v>15506.24</v>
+        <v>9935.3799999999992</v>
       </c>
       <c r="H32">
-        <v>15410.97</v>
+        <v>9906.85</v>
       </c>
       <c r="I32">
-        <v>15254.63</v>
+        <v>10126.14</v>
       </c>
       <c r="J32">
-        <v>15258.67</v>
+        <v>10109.09</v>
       </c>
       <c r="K32">
-        <v>15429.08</v>
+        <v>10198.11</v>
       </c>
       <c r="L32">
-        <v>15743.43</v>
+        <v>10454.85</v>
       </c>
       <c r="M32">
-        <v>15796.97</v>
+        <v>10845.38</v>
       </c>
       <c r="N32">
-        <v>15895.16</v>
+        <v>11090.74</v>
       </c>
       <c r="O32">
-        <v>16014.93</v>
+        <v>11462.38</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -2220,43 +2220,43 @@
         <v>19</v>
       </c>
       <c r="C33">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D33">
-        <v>16729.86</v>
+        <v>12473.59</v>
       </c>
       <c r="E33">
-        <v>16759.75</v>
+        <v>12705.9</v>
       </c>
       <c r="F33">
-        <v>16815.59</v>
+        <v>12852.98</v>
       </c>
       <c r="G33">
-        <v>16919.14</v>
+        <v>12951.26</v>
       </c>
       <c r="H33">
-        <v>16909.73</v>
+        <v>12931.73</v>
       </c>
       <c r="I33">
-        <v>16929.72</v>
+        <v>12833</v>
       </c>
       <c r="J33">
-        <v>16981.16</v>
+        <v>12959.27</v>
       </c>
       <c r="K33">
-        <v>17014.73</v>
+        <v>13102.14</v>
       </c>
       <c r="L33">
-        <v>17311.91</v>
+        <v>13438.65</v>
       </c>
       <c r="M33">
-        <v>17342.310000000001</v>
+        <v>13841.63</v>
       </c>
       <c r="N33">
-        <v>17659.560000000001</v>
+        <v>14277.23</v>
       </c>
       <c r="O33">
-        <v>17899.5</v>
+        <v>14649.31</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -2264,46 +2264,46 @@
         <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C34">
-        <v>2013</v>
+        <v>2018</v>
       </c>
       <c r="D34">
-        <v>6167.05</v>
+        <v>14767.46</v>
       </c>
       <c r="E34">
-        <v>6063.49</v>
+        <v>14851.44</v>
       </c>
       <c r="F34">
-        <v>5787.82</v>
+        <v>14961.34</v>
       </c>
       <c r="G34">
-        <v>5728.34</v>
+        <v>15071.07</v>
       </c>
       <c r="H34">
-        <v>5656.48</v>
+        <v>14911.97</v>
       </c>
       <c r="I34">
-        <v>5641.23</v>
+        <v>14833.15</v>
       </c>
       <c r="J34">
-        <v>5721.77</v>
+        <v>14845.9</v>
       </c>
       <c r="K34">
-        <v>5546.32</v>
+        <v>14981.38</v>
       </c>
       <c r="L34">
-        <v>5405.62</v>
+        <v>15416.43</v>
       </c>
       <c r="M34">
-        <v>5497.31</v>
+        <v>15563.16</v>
       </c>
       <c r="N34">
-        <v>5641.06</v>
+        <v>15960.09</v>
       </c>
       <c r="O34">
-        <v>5478.25</v>
+        <v>16131.07</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -2311,46 +2311,46 @@
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C35">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="D35">
-        <v>5479.7</v>
+        <v>15404.69</v>
       </c>
       <c r="E35">
-        <v>5613.21</v>
+        <v>15444.83</v>
       </c>
       <c r="F35">
-        <v>6274.77</v>
+        <v>15615.21</v>
       </c>
       <c r="G35">
-        <v>6602.68</v>
+        <v>15506.24</v>
       </c>
       <c r="H35">
-        <v>6624.18</v>
+        <v>15410.97</v>
       </c>
       <c r="I35">
-        <v>6654</v>
+        <v>15254.63</v>
       </c>
       <c r="J35">
-        <v>6546.76</v>
+        <v>15258.67</v>
       </c>
       <c r="K35">
-        <v>6547.27</v>
+        <v>15429.08</v>
       </c>
       <c r="L35">
-        <v>6467.95</v>
+        <v>15743.43</v>
       </c>
       <c r="M35">
-        <v>6615.86</v>
+        <v>15796.97</v>
       </c>
       <c r="N35">
-        <v>8065.62</v>
+        <v>15895.16</v>
       </c>
       <c r="O35">
-        <v>10365.08</v>
+        <v>16014.93</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -2358,93 +2358,93 @@
         <v>3</v>
       </c>
       <c r="B36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C36">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="D36">
-        <v>10848.13</v>
+        <v>16729.86</v>
       </c>
       <c r="E36">
-        <v>11480.48</v>
+        <v>16759.75</v>
       </c>
       <c r="F36">
-        <v>12803.27</v>
+        <v>16815.59</v>
       </c>
       <c r="G36">
-        <v>12709.35</v>
+        <v>16919.14</v>
       </c>
       <c r="H36">
-        <v>12543.82</v>
+        <v>16909.73</v>
       </c>
       <c r="I36">
-        <v>12441.61</v>
+        <v>16929.72</v>
       </c>
       <c r="J36">
-        <v>12989.03</v>
+        <v>16981.16</v>
       </c>
       <c r="K36">
-        <v>13822.22</v>
+        <v>17014.73</v>
       </c>
       <c r="L36">
-        <v>14020.45</v>
+        <v>17311.91</v>
       </c>
       <c r="M36">
-        <v>14800.86</v>
+        <v>17342.310000000001</v>
       </c>
       <c r="N36">
-        <v>15869.48</v>
+        <v>17659.560000000001</v>
       </c>
       <c r="O36">
-        <v>16083.8</v>
+        <v>17899.5</v>
       </c>
     </row>
     <row r="37" spans="1:15">
-      <c r="A37" t="s">
+      <c r="A37" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B37" t="s">
-        <v>20</v>
-      </c>
-      <c r="C37">
-        <v>2016</v>
+      <c r="B37" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" s="3">
+        <v>2021</v>
       </c>
       <c r="D37">
-        <v>19309.2</v>
+        <v>18328.91</v>
       </c>
       <c r="E37">
-        <v>21211.24</v>
+        <v>18577.43</v>
       </c>
       <c r="F37">
-        <v>22741.14</v>
+        <v>18712.939999999999</v>
       </c>
       <c r="G37">
-        <v>23278.02</v>
+        <v>18986.099999999999</v>
       </c>
       <c r="H37">
-        <v>24111.86</v>
+        <v>19170.48</v>
       </c>
       <c r="I37">
-        <v>24861.87</v>
+        <v>19320.84</v>
       </c>
       <c r="J37">
-        <v>23713.39</v>
+        <v>19658.52</v>
       </c>
       <c r="K37">
-        <v>23078.38</v>
+        <v>19709.38</v>
       </c>
       <c r="L37">
-        <v>21611.05</v>
+        <v>19842.3</v>
       </c>
       <c r="M37">
-        <v>22160.11</v>
+        <v>20044.240000000002</v>
       </c>
       <c r="N37">
-        <v>22087</v>
+        <v>20045.349999999999</v>
       </c>
       <c r="O37">
-        <v>22343.61</v>
+        <v>20216.12</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -2455,43 +2455,43 @@
         <v>20</v>
       </c>
       <c r="C38">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="D38">
-        <v>22345.31</v>
+        <v>6167.05</v>
       </c>
       <c r="E38">
-        <v>22643.1</v>
+        <v>6063.49</v>
       </c>
       <c r="F38">
-        <v>22386.57</v>
+        <v>5787.82</v>
       </c>
       <c r="G38">
-        <v>21566.09</v>
+        <v>5728.34</v>
       </c>
       <c r="H38">
-        <v>21079.49</v>
+        <v>5656.48</v>
       </c>
       <c r="I38">
-        <v>20230.38</v>
+        <v>5641.23</v>
       </c>
       <c r="J38">
-        <v>19554.37</v>
+        <v>5721.77</v>
       </c>
       <c r="K38">
-        <v>19774.71</v>
+        <v>5546.32</v>
       </c>
       <c r="L38">
-        <v>17663.990000000002</v>
+        <v>5405.62</v>
       </c>
       <c r="M38">
-        <v>16947.919999999998</v>
+        <v>5497.31</v>
       </c>
       <c r="N38">
-        <v>16544.86</v>
+        <v>5641.06</v>
       </c>
       <c r="O38">
-        <v>15014.63</v>
+        <v>5478.25</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -2502,43 +2502,43 @@
         <v>20</v>
       </c>
       <c r="C39">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="D39">
-        <v>14398.83</v>
+        <v>5479.7</v>
       </c>
       <c r="E39">
-        <v>14194.57</v>
+        <v>5613.21</v>
       </c>
       <c r="F39">
-        <v>13064.66</v>
+        <v>6274.77</v>
       </c>
       <c r="G39">
-        <v>12100.57</v>
+        <v>6602.68</v>
       </c>
       <c r="H39">
-        <v>11263.6</v>
+        <v>6624.18</v>
       </c>
       <c r="I39">
-        <v>11578.25</v>
+        <v>6654</v>
       </c>
       <c r="J39">
-        <v>12368.71</v>
+        <v>6546.76</v>
       </c>
       <c r="K39">
-        <v>11878.89</v>
+        <v>6547.27</v>
       </c>
       <c r="L39">
-        <v>11913.35</v>
+        <v>6467.95</v>
       </c>
       <c r="M39">
-        <v>11567.48</v>
+        <v>6615.86</v>
       </c>
       <c r="N39">
-        <v>11219.11</v>
+        <v>8065.62</v>
       </c>
       <c r="O39">
-        <v>11261.46</v>
+        <v>10365.08</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -2549,43 +2549,43 @@
         <v>20</v>
       </c>
       <c r="C40">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="D40">
-        <v>11896.94</v>
+        <v>10848.13</v>
       </c>
       <c r="E40">
-        <v>12181.34</v>
+        <v>11480.48</v>
       </c>
       <c r="F40">
-        <v>12055.64</v>
+        <v>12803.27</v>
       </c>
       <c r="G40">
-        <v>11900.78</v>
+        <v>12709.35</v>
       </c>
       <c r="H40">
-        <v>11899.31</v>
+        <v>12543.82</v>
       </c>
       <c r="I40">
-        <v>12308.95</v>
+        <v>12441.61</v>
       </c>
       <c r="J40">
-        <v>12223.4</v>
+        <v>12989.03</v>
       </c>
       <c r="K40">
-        <v>13209.45</v>
+        <v>13822.22</v>
       </c>
       <c r="L40">
-        <v>15487.46</v>
+        <v>14020.45</v>
       </c>
       <c r="M40">
-        <v>18357.689999999999</v>
+        <v>14800.86</v>
       </c>
       <c r="N40">
-        <v>18528.04</v>
+        <v>15869.48</v>
       </c>
       <c r="O40">
-        <v>18869.599999999999</v>
+        <v>16083.8</v>
       </c>
     </row>
     <row r="41" spans="1:15">
@@ -2596,43 +2596,43 @@
         <v>20</v>
       </c>
       <c r="C41">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="D41">
-        <v>19198.63</v>
+        <v>19309.2</v>
       </c>
       <c r="E41">
-        <v>19676.66</v>
+        <v>21211.24</v>
       </c>
       <c r="F41">
-        <v>21556.57</v>
+        <v>22741.14</v>
       </c>
       <c r="G41">
-        <v>24232.51</v>
+        <v>23278.02</v>
       </c>
       <c r="H41">
-        <v>24036.720000000001</v>
+        <v>24111.86</v>
       </c>
       <c r="I41">
-        <v>24689.200000000001</v>
+        <v>24861.87</v>
       </c>
       <c r="J41">
-        <v>25444.560000000001</v>
+        <v>23713.39</v>
       </c>
       <c r="K41">
-        <v>25054.75</v>
+        <v>23078.38</v>
       </c>
       <c r="L41">
-        <v>25143.78</v>
+        <v>21611.05</v>
       </c>
       <c r="M41">
-        <v>25599.8</v>
+        <v>22160.11</v>
       </c>
       <c r="N41">
-        <v>26272.51</v>
+        <v>22087</v>
       </c>
       <c r="O41">
-        <v>26448.37</v>
+        <v>22343.61</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -2640,46 +2640,46 @@
         <v>3</v>
       </c>
       <c r="B42" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C42">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="D42">
-        <v>4347.74</v>
+        <v>22345.31</v>
       </c>
       <c r="E42">
-        <v>4264.54</v>
+        <v>22643.1</v>
       </c>
       <c r="F42">
-        <v>4251.45</v>
+        <v>22386.57</v>
       </c>
       <c r="G42">
-        <v>4284.24</v>
+        <v>21566.09</v>
       </c>
       <c r="H42">
-        <v>4298.6499999999996</v>
+        <v>21079.49</v>
       </c>
       <c r="I42">
-        <v>4470.47</v>
+        <v>20230.38</v>
       </c>
       <c r="J42">
-        <v>4655.6000000000004</v>
+        <v>19554.37</v>
       </c>
       <c r="K42">
-        <v>4654.0200000000004</v>
+        <v>19774.71</v>
       </c>
       <c r="L42">
-        <v>4705.68</v>
+        <v>17663.990000000002</v>
       </c>
       <c r="M42">
-        <v>4728.5600000000004</v>
+        <v>16947.919999999998</v>
       </c>
       <c r="N42">
-        <v>4960.9399999999996</v>
+        <v>16544.86</v>
       </c>
       <c r="O42">
-        <v>5191.9799999999996</v>
+        <v>15014.63</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -2687,46 +2687,46 @@
         <v>3</v>
       </c>
       <c r="B43" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C43">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="D43">
-        <v>5502.62</v>
+        <v>14398.83</v>
       </c>
       <c r="E43">
-        <v>5664.4</v>
+        <v>14194.57</v>
       </c>
       <c r="F43">
-        <v>6109.19</v>
+        <v>13064.66</v>
       </c>
       <c r="G43">
-        <v>6427.41</v>
+        <v>12100.57</v>
       </c>
       <c r="H43">
-        <v>6942.51</v>
+        <v>11263.6</v>
       </c>
       <c r="I43">
-        <v>7061.89</v>
+        <v>11578.25</v>
       </c>
       <c r="J43">
-        <v>7197.61</v>
+        <v>12368.71</v>
       </c>
       <c r="K43">
-        <v>7308.5</v>
+        <v>11878.89</v>
       </c>
       <c r="L43">
-        <v>7133.49</v>
+        <v>11913.35</v>
       </c>
       <c r="M43">
-        <v>6528.95</v>
+        <v>11567.48</v>
       </c>
       <c r="N43">
-        <v>6148.56</v>
+        <v>11219.11</v>
       </c>
       <c r="O43">
-        <v>6252.25</v>
+        <v>11261.46</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -2734,46 +2734,46 @@
         <v>3</v>
       </c>
       <c r="B44" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C44">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="D44">
-        <v>6580.76</v>
+        <v>11896.94</v>
       </c>
       <c r="E44">
-        <v>7204.64</v>
+        <v>12181.34</v>
       </c>
       <c r="F44">
-        <v>7863.68</v>
+        <v>12055.64</v>
       </c>
       <c r="G44">
-        <v>7624.99</v>
+        <v>11900.78</v>
       </c>
       <c r="H44">
-        <v>7835.54</v>
+        <v>11899.31</v>
       </c>
       <c r="I44">
-        <v>8063.54</v>
+        <v>12308.95</v>
       </c>
       <c r="J44">
-        <v>8202.0499999999993</v>
+        <v>12223.4</v>
       </c>
       <c r="K44">
-        <v>8274.84</v>
+        <v>13209.45</v>
       </c>
       <c r="L44">
-        <v>8457.1200000000008</v>
+        <v>15487.46</v>
       </c>
       <c r="M44">
-        <v>9379.3799999999992</v>
+        <v>18357.689999999999</v>
       </c>
       <c r="N44">
-        <v>9720.5499999999993</v>
+        <v>18528.04</v>
       </c>
       <c r="O44">
-        <v>10242.719999999999</v>
+        <v>18869.599999999999</v>
       </c>
     </row>
     <row r="45" spans="1:15">
@@ -2781,93 +2781,93 @@
         <v>3</v>
       </c>
       <c r="B45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C45">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="D45">
-        <v>11105.18</v>
+        <v>19198.63</v>
       </c>
       <c r="E45">
-        <v>11416.27</v>
+        <v>19676.66</v>
       </c>
       <c r="F45">
-        <v>11435.4</v>
+        <v>21556.57</v>
       </c>
       <c r="G45">
-        <v>11250.38</v>
+        <v>24232.51</v>
       </c>
       <c r="H45">
-        <v>11018.67</v>
+        <v>24036.720000000001</v>
       </c>
       <c r="I45">
-        <v>10708.76</v>
+        <v>24689.200000000001</v>
       </c>
       <c r="J45">
-        <v>10905.52</v>
+        <v>25444.560000000001</v>
       </c>
       <c r="K45">
-        <v>10975.01</v>
+        <v>25054.75</v>
       </c>
       <c r="L45">
-        <v>11042.5</v>
+        <v>25143.78</v>
       </c>
       <c r="M45">
-        <v>11371.42</v>
+        <v>25599.8</v>
       </c>
       <c r="N45">
-        <v>11808.62</v>
+        <v>26272.51</v>
       </c>
       <c r="O45">
-        <v>11674.75</v>
+        <v>26448.37</v>
       </c>
     </row>
     <row r="46" spans="1:15">
-      <c r="A46" t="s">
+      <c r="A46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B46" t="s">
-        <v>21</v>
-      </c>
-      <c r="C46">
-        <v>2017</v>
+      <c r="B46" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C46" s="3">
+        <v>2021</v>
       </c>
       <c r="D46">
-        <v>11564.96</v>
+        <v>27006.66</v>
       </c>
       <c r="E46">
-        <v>12213.03</v>
+        <v>27979.16</v>
       </c>
       <c r="F46">
-        <v>12717.74</v>
+        <v>28908.91</v>
       </c>
       <c r="G46">
-        <v>12972.84</v>
+        <v>29205.8</v>
       </c>
       <c r="H46">
-        <v>12935.93</v>
+        <v>29488.400000000001</v>
       </c>
       <c r="I46">
-        <v>12755.36</v>
+        <v>31125.83</v>
       </c>
       <c r="J46">
-        <v>12846.84</v>
+        <v>30164.73</v>
       </c>
       <c r="K46">
-        <v>12746.15</v>
+        <v>29164.13</v>
       </c>
       <c r="L46">
-        <v>12253.78</v>
+        <v>29616.25</v>
       </c>
       <c r="M46">
-        <v>11226.96</v>
+        <v>30886.06</v>
       </c>
       <c r="N46">
-        <v>10737.66</v>
+        <v>33847.68</v>
       </c>
       <c r="O46">
-        <v>10263.61</v>
+        <v>35248.51</v>
       </c>
     </row>
     <row r="47" spans="1:15">
@@ -2878,43 +2878,43 @@
         <v>21</v>
       </c>
       <c r="C47">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="D47">
-        <v>9893.5499999999993</v>
+        <v>4347.74</v>
       </c>
       <c r="E47">
-        <v>10073.52</v>
+        <v>4264.54</v>
       </c>
       <c r="F47">
-        <v>9787.84</v>
+        <v>4251.45</v>
       </c>
       <c r="G47">
-        <v>9648.57</v>
+        <v>4284.24</v>
       </c>
       <c r="H47">
-        <v>9479.52</v>
+        <v>4298.6499999999996</v>
       </c>
       <c r="I47">
-        <v>9396.1200000000008</v>
+        <v>4470.47</v>
       </c>
       <c r="J47">
-        <v>9675.84</v>
+        <v>4655.6000000000004</v>
       </c>
       <c r="K47">
-        <v>9780.1200000000008</v>
+        <v>4654.0200000000004</v>
       </c>
       <c r="L47">
-        <v>9460.15</v>
+        <v>4705.68</v>
       </c>
       <c r="M47">
-        <v>9066.3700000000008</v>
+        <v>4728.5600000000004</v>
       </c>
       <c r="N47">
-        <v>9037.02</v>
+        <v>4960.9399999999996</v>
       </c>
       <c r="O47">
-        <v>9129.93</v>
+        <v>5191.9799999999996</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -2925,43 +2925,43 @@
         <v>21</v>
       </c>
       <c r="C48">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="D48">
-        <v>9187.9699999999993</v>
+        <v>5502.62</v>
       </c>
       <c r="E48">
-        <v>9135.23</v>
+        <v>5664.4</v>
       </c>
       <c r="F48">
-        <v>9118.24</v>
+        <v>6109.19</v>
       </c>
       <c r="G48">
-        <v>9125.1299999999992</v>
+        <v>6427.41</v>
       </c>
       <c r="H48">
-        <v>9223.89</v>
+        <v>6942.51</v>
       </c>
       <c r="I48">
-        <v>9707.06</v>
+        <v>7061.89</v>
       </c>
       <c r="J48">
-        <v>9636.91</v>
+        <v>7197.61</v>
       </c>
       <c r="K48">
-        <v>9410.0300000000007</v>
+        <v>7308.5</v>
       </c>
       <c r="L48">
-        <v>9341.06</v>
+        <v>7133.49</v>
       </c>
       <c r="M48">
-        <v>8945.74</v>
+        <v>6528.95</v>
       </c>
       <c r="N48">
-        <v>8918.65</v>
+        <v>6148.56</v>
       </c>
       <c r="O48">
-        <v>8734.4599999999991</v>
+        <v>6252.25</v>
       </c>
     </row>
     <row r="49" spans="1:15">
@@ -2972,43 +2972,43 @@
         <v>21</v>
       </c>
       <c r="C49">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="D49">
-        <v>8752.27</v>
+        <v>6580.76</v>
       </c>
       <c r="E49">
-        <v>9018.6</v>
+        <v>7204.64</v>
       </c>
       <c r="F49">
-        <v>9188.73</v>
+        <v>7863.68</v>
       </c>
       <c r="G49">
-        <v>9810.1</v>
+        <v>7624.99</v>
       </c>
       <c r="H49">
-        <v>9648.1200000000008</v>
+        <v>7835.54</v>
       </c>
       <c r="I49">
-        <v>9717.94</v>
+        <v>8063.54</v>
       </c>
       <c r="J49">
-        <v>9603.18</v>
+        <v>8202.0499999999993</v>
       </c>
       <c r="K49">
-        <v>9503.85</v>
+        <v>8274.84</v>
       </c>
       <c r="L49">
-        <v>9647.31</v>
+        <v>8457.1200000000008</v>
       </c>
       <c r="M49">
-        <v>11243.64</v>
+        <v>9379.3799999999992</v>
       </c>
       <c r="N49">
-        <v>12363.7</v>
+        <v>9720.5499999999993</v>
       </c>
       <c r="O49">
-        <v>13171.33</v>
+        <v>10242.719999999999</v>
       </c>
     </row>
     <row r="50" spans="1:15">
@@ -3016,46 +3016,46 @@
         <v>3</v>
       </c>
       <c r="B50" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C50">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D50">
-        <v>8827.31</v>
+        <v>11105.18</v>
       </c>
       <c r="E50">
-        <v>8982.49</v>
+        <v>11416.27</v>
       </c>
       <c r="F50">
-        <v>8781.93</v>
+        <v>11435.4</v>
       </c>
       <c r="G50">
-        <v>8611.8799999999992</v>
+        <v>11250.38</v>
       </c>
       <c r="H50">
-        <v>8525.0499999999993</v>
+        <v>11018.67</v>
       </c>
       <c r="I50">
-        <v>8585.3700000000008</v>
+        <v>10708.76</v>
       </c>
       <c r="J50">
-        <v>8608.94</v>
+        <v>10905.52</v>
       </c>
       <c r="K50">
-        <v>8535.6200000000008</v>
+        <v>10975.01</v>
       </c>
       <c r="L50">
-        <v>7917.82</v>
+        <v>11042.5</v>
       </c>
       <c r="M50">
-        <v>7241.99</v>
+        <v>11371.42</v>
       </c>
       <c r="N50">
-        <v>7094.81</v>
+        <v>11808.62</v>
       </c>
       <c r="O50">
-        <v>7023.48</v>
+        <v>11674.75</v>
       </c>
     </row>
     <row r="51" spans="1:15">
@@ -3063,46 +3063,46 @@
         <v>3</v>
       </c>
       <c r="B51" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C51">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="D51">
-        <v>6817.6</v>
+        <v>11564.96</v>
       </c>
       <c r="E51">
-        <v>6730.75</v>
+        <v>12213.03</v>
       </c>
       <c r="F51">
-        <v>7481.1</v>
+        <v>12717.74</v>
       </c>
       <c r="G51">
-        <v>8465.01</v>
+        <v>12972.84</v>
       </c>
       <c r="H51">
-        <v>8872.0300000000007</v>
+        <v>12935.93</v>
       </c>
       <c r="I51">
-        <v>9001.4</v>
+        <v>12755.36</v>
       </c>
       <c r="J51">
-        <v>9021.7000000000007</v>
+        <v>12846.84</v>
       </c>
       <c r="K51">
-        <v>9223</v>
+        <v>12746.15</v>
       </c>
       <c r="L51">
-        <v>9165.7199999999993</v>
+        <v>12253.78</v>
       </c>
       <c r="M51">
-        <v>8982.5400000000009</v>
+        <v>11226.96</v>
       </c>
       <c r="N51">
-        <v>9657.01</v>
+        <v>10737.66</v>
       </c>
       <c r="O51">
-        <v>10467.02</v>
+        <v>10263.61</v>
       </c>
     </row>
     <row r="52" spans="1:15">
@@ -3110,46 +3110,46 @@
         <v>3</v>
       </c>
       <c r="B52" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C52">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="D52">
-        <v>11683.08</v>
+        <v>9893.5499999999993</v>
       </c>
       <c r="E52">
-        <v>14127.59</v>
+        <v>10073.52</v>
       </c>
       <c r="F52">
-        <v>14905.96</v>
+        <v>9787.84</v>
       </c>
       <c r="G52">
-        <v>15778.07</v>
+        <v>9648.57</v>
       </c>
       <c r="H52">
-        <v>15346.55</v>
+        <v>9479.52</v>
       </c>
       <c r="I52">
-        <v>16319.07</v>
+        <v>9396.1200000000008</v>
       </c>
       <c r="J52">
-        <v>17245.03</v>
+        <v>9675.84</v>
       </c>
       <c r="K52">
-        <v>17236.48</v>
+        <v>9780.1200000000008</v>
       </c>
       <c r="L52">
-        <v>16928.37</v>
+        <v>9460.15</v>
       </c>
       <c r="M52">
-        <v>16547.689999999999</v>
+        <v>9066.3700000000008</v>
       </c>
       <c r="N52">
-        <v>17541.54</v>
+        <v>9037.02</v>
       </c>
       <c r="O52">
-        <v>17547.2</v>
+        <v>9129.93</v>
       </c>
     </row>
     <row r="53" spans="1:15">
@@ -3157,46 +3157,46 @@
         <v>3</v>
       </c>
       <c r="B53" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C53">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D53">
-        <v>18692.400000000001</v>
+        <v>9187.9699999999993</v>
       </c>
       <c r="E53">
-        <v>19983.16</v>
+        <v>9135.23</v>
       </c>
       <c r="F53">
-        <v>20137.669999999998</v>
+        <v>9118.24</v>
       </c>
       <c r="G53">
-        <v>20149.73</v>
+        <v>9125.1299999999992</v>
       </c>
       <c r="H53">
-        <v>20082.86</v>
+        <v>9223.89</v>
       </c>
       <c r="I53">
-        <v>19945.599999999999</v>
+        <v>9707.06</v>
       </c>
       <c r="J53">
-        <v>19805.080000000002</v>
+        <v>9636.91</v>
       </c>
       <c r="K53">
-        <v>20127.84</v>
+        <v>9410.0300000000007</v>
       </c>
       <c r="L53">
-        <v>20267.71</v>
+        <v>9341.06</v>
       </c>
       <c r="M53">
-        <v>20404.72</v>
+        <v>8945.74</v>
       </c>
       <c r="N53">
-        <v>20299.63</v>
+        <v>8918.65</v>
       </c>
       <c r="O53">
-        <v>20206.68</v>
+        <v>8734.4599999999991</v>
       </c>
     </row>
     <row r="54" spans="1:15">
@@ -3204,93 +3204,93 @@
         <v>3</v>
       </c>
       <c r="B54" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C54">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D54">
-        <v>20433.41</v>
+        <v>8752.27</v>
       </c>
       <c r="E54">
-        <v>20593.16</v>
+        <v>9018.6</v>
       </c>
       <c r="F54">
-        <v>20863.57</v>
+        <v>9188.73</v>
       </c>
       <c r="G54">
-        <v>19672.84</v>
+        <v>9810.1</v>
       </c>
       <c r="H54">
-        <v>19628.93</v>
+        <v>9648.1200000000008</v>
       </c>
       <c r="I54">
-        <v>19342.580000000002</v>
+        <v>9717.94</v>
       </c>
       <c r="J54">
-        <v>19315.25</v>
+        <v>9603.18</v>
       </c>
       <c r="K54">
-        <v>19238.169999999998</v>
+        <v>9503.85</v>
       </c>
       <c r="L54">
-        <v>19617.82</v>
+        <v>9647.31</v>
       </c>
       <c r="M54">
-        <v>19800.32</v>
+        <v>11243.64</v>
       </c>
       <c r="N54">
-        <v>19962.91</v>
+        <v>12363.7</v>
       </c>
       <c r="O54">
-        <v>20123.29</v>
+        <v>13171.33</v>
       </c>
     </row>
     <row r="55" spans="1:15">
-      <c r="A55" t="s">
+      <c r="A55" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B55" t="s">
-        <v>22</v>
-      </c>
-      <c r="C55">
-        <v>2018</v>
+      <c r="B55" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C55" s="3">
+        <v>2021</v>
       </c>
       <c r="D55">
-        <v>20996.71</v>
+        <v>14849.94</v>
       </c>
       <c r="E55">
-        <v>20989.14</v>
+        <v>15427.57</v>
       </c>
       <c r="F55">
-        <v>20858.03</v>
+        <v>16146.71</v>
       </c>
       <c r="G55">
-        <v>20795.740000000002</v>
+        <v>16650.330000000002</v>
       </c>
       <c r="H55">
-        <v>20694.8</v>
+        <v>16252.08</v>
       </c>
       <c r="I55">
-        <v>20507.96</v>
+        <v>16533.78</v>
       </c>
       <c r="J55">
-        <v>20590.45</v>
+        <v>17358.439999999999</v>
       </c>
       <c r="K55">
-        <v>20760.84</v>
+        <v>17083.68</v>
       </c>
       <c r="L55">
-        <v>20897.27</v>
+        <v>16731.71</v>
       </c>
       <c r="M55">
-        <v>20585.87</v>
+        <v>16786.41</v>
       </c>
       <c r="N55">
-        <v>20138.7</v>
+        <v>16625.88</v>
       </c>
       <c r="O55">
-        <v>19581.12</v>
+        <v>16853.830000000002</v>
       </c>
     </row>
     <row r="56" spans="1:15">
@@ -3301,43 +3301,43 @@
         <v>22</v>
       </c>
       <c r="C56">
-        <v>2019</v>
+        <v>2013</v>
       </c>
       <c r="D56">
-        <v>19337.59</v>
+        <v>8827.31</v>
       </c>
       <c r="E56">
-        <v>19417.669999999998</v>
+        <v>8982.49</v>
       </c>
       <c r="F56">
-        <v>19312.509999999998</v>
+        <v>8781.93</v>
       </c>
       <c r="G56">
-        <v>19221.439999999999</v>
+        <v>8611.8799999999992</v>
       </c>
       <c r="H56">
-        <v>18957.650000000001</v>
+        <v>8525.0499999999993</v>
       </c>
       <c r="I56">
-        <v>19342.46</v>
+        <v>8585.3700000000008</v>
       </c>
       <c r="J56">
-        <v>19428.64</v>
+        <v>8608.94</v>
       </c>
       <c r="K56">
-        <v>19764.95</v>
+        <v>8535.6200000000008</v>
       </c>
       <c r="L56">
-        <v>19416.13</v>
+        <v>7917.82</v>
       </c>
       <c r="M56">
-        <v>18869.64</v>
+        <v>7241.99</v>
       </c>
       <c r="N56">
-        <v>18382.2</v>
+        <v>7094.81</v>
       </c>
       <c r="O56">
-        <v>18050.03</v>
+        <v>7023.48</v>
       </c>
     </row>
     <row r="57" spans="1:15">
@@ -3348,43 +3348,43 @@
         <v>22</v>
       </c>
       <c r="C57">
-        <v>2020</v>
+        <v>2014</v>
       </c>
       <c r="D57">
-        <v>18235.560000000001</v>
+        <v>6817.6</v>
       </c>
       <c r="E57">
-        <v>18509.310000000001</v>
+        <v>6730.75</v>
       </c>
       <c r="F57">
-        <v>18723.32</v>
+        <v>7481.1</v>
       </c>
       <c r="G57">
-        <v>19247.82</v>
+        <v>8465.01</v>
       </c>
       <c r="H57">
-        <v>19303.25</v>
+        <v>8872.0300000000007</v>
       </c>
       <c r="I57">
-        <v>19634.66</v>
+        <v>9001.4</v>
       </c>
       <c r="J57">
-        <v>20044.39</v>
+        <v>9021.7000000000007</v>
       </c>
       <c r="K57">
-        <v>20555.47</v>
+        <v>9223</v>
       </c>
       <c r="L57">
-        <v>22615.47</v>
+        <v>9165.7199999999993</v>
       </c>
       <c r="M57">
-        <v>24416.85</v>
+        <v>8982.5400000000009</v>
       </c>
       <c r="N57">
-        <v>25148.02</v>
+        <v>9657.01</v>
       </c>
       <c r="O57">
-        <v>27388.18</v>
+        <v>10467.02</v>
       </c>
     </row>
     <row r="58" spans="1:15">
@@ -3392,46 +3392,46 @@
         <v>3</v>
       </c>
       <c r="B58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C58">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="D58">
-        <v>2576.0700000000002</v>
+        <v>11683.08</v>
       </c>
       <c r="E58">
-        <v>2650.12</v>
+        <v>14127.59</v>
       </c>
       <c r="F58">
-        <v>2677.09</v>
+        <v>14905.96</v>
       </c>
       <c r="G58">
-        <v>2681.47</v>
+        <v>15778.07</v>
       </c>
       <c r="H58">
-        <v>2685.55</v>
+        <v>15346.55</v>
       </c>
       <c r="I58">
-        <v>2667.11</v>
+        <v>16319.07</v>
       </c>
       <c r="J58">
-        <v>2632.77</v>
+        <v>17245.03</v>
       </c>
       <c r="K58">
-        <v>2428.0300000000002</v>
+        <v>17236.48</v>
       </c>
       <c r="L58">
-        <v>2281.35</v>
+        <v>16928.37</v>
       </c>
       <c r="M58">
-        <v>2234.9899999999998</v>
+        <v>16547.689999999999</v>
       </c>
       <c r="N58">
-        <v>2261.6799999999998</v>
+        <v>17541.54</v>
       </c>
       <c r="O58">
-        <v>2311.48</v>
+        <v>17547.2</v>
       </c>
     </row>
     <row r="59" spans="1:15">
@@ -3439,46 +3439,46 @@
         <v>3</v>
       </c>
       <c r="B59" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C59">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D59">
-        <v>2341.9499999999998</v>
+        <v>18692.400000000001</v>
       </c>
       <c r="E59">
-        <v>2394.67</v>
+        <v>19983.16</v>
       </c>
       <c r="F59">
-        <v>2483.87</v>
+        <v>20137.669999999998</v>
       </c>
       <c r="G59">
-        <v>2691.36</v>
+        <v>20149.73</v>
       </c>
       <c r="H59">
-        <v>2849.12</v>
+        <v>20082.86</v>
       </c>
       <c r="I59">
-        <v>2950.67</v>
+        <v>19945.599999999999</v>
       </c>
       <c r="J59">
-        <v>2965.1</v>
+        <v>19805.080000000002</v>
       </c>
       <c r="K59">
-        <v>2933.33</v>
+        <v>20127.84</v>
       </c>
       <c r="L59">
-        <v>2971.02</v>
+        <v>20267.71</v>
       </c>
       <c r="M59">
-        <v>3008.55</v>
+        <v>20404.72</v>
       </c>
       <c r="N59">
-        <v>3038.32</v>
+        <v>20299.63</v>
       </c>
       <c r="O59">
-        <v>3143.43</v>
+        <v>20206.68</v>
       </c>
     </row>
     <row r="60" spans="1:15">
@@ -3486,46 +3486,46 @@
         <v>3</v>
       </c>
       <c r="B60" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C60">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="D60">
-        <v>3424.32</v>
+        <v>20433.41</v>
       </c>
       <c r="E60">
-        <v>4031.64</v>
+        <v>20593.16</v>
       </c>
       <c r="F60">
-        <v>4432.8999999999996</v>
+        <v>20863.57</v>
       </c>
       <c r="G60">
-        <v>4489.5200000000004</v>
+        <v>19672.84</v>
       </c>
       <c r="H60">
-        <v>4279.3500000000004</v>
+        <v>19628.93</v>
       </c>
       <c r="I60">
-        <v>4027.79</v>
+        <v>19342.580000000002</v>
       </c>
       <c r="J60">
-        <v>3952.95</v>
+        <v>19315.25</v>
       </c>
       <c r="K60">
-        <v>3971.69</v>
+        <v>19238.169999999998</v>
       </c>
       <c r="L60">
-        <v>3977.41</v>
+        <v>19617.82</v>
       </c>
       <c r="M60">
-        <v>3922.51</v>
+        <v>19800.32</v>
       </c>
       <c r="N60">
-        <v>4104.3500000000004</v>
+        <v>19962.91</v>
       </c>
       <c r="O60">
-        <v>4223.05</v>
+        <v>20123.29</v>
       </c>
     </row>
     <row r="61" spans="1:15">
@@ -3533,46 +3533,46 @@
         <v>3</v>
       </c>
       <c r="B61" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C61">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D61">
-        <v>4541.78</v>
+        <v>20996.71</v>
       </c>
       <c r="E61">
-        <v>4619.6899999999996</v>
+        <v>20989.14</v>
       </c>
       <c r="F61">
-        <v>4624.55</v>
+        <v>20858.03</v>
       </c>
       <c r="G61">
-        <v>4532.33</v>
+        <v>20795.740000000002</v>
       </c>
       <c r="H61">
-        <v>4485.67</v>
+        <v>20694.8</v>
       </c>
       <c r="I61">
-        <v>4550.96</v>
+        <v>20507.96</v>
       </c>
       <c r="J61">
-        <v>4539.92</v>
+        <v>20590.45</v>
       </c>
       <c r="K61">
-        <v>4517.3900000000003</v>
+        <v>20760.84</v>
       </c>
       <c r="L61">
-        <v>4551.71</v>
+        <v>20897.27</v>
       </c>
       <c r="M61">
-        <v>4587.97</v>
+        <v>20585.87</v>
       </c>
       <c r="N61">
-        <v>4722.3900000000003</v>
+        <v>20138.7</v>
       </c>
       <c r="O61">
-        <v>4804.8999999999996</v>
+        <v>19581.12</v>
       </c>
     </row>
     <row r="62" spans="1:15">
@@ -3580,46 +3580,46 @@
         <v>3</v>
       </c>
       <c r="B62" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C62">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="D62">
-        <v>4836.33</v>
+        <v>19337.59</v>
       </c>
       <c r="E62">
-        <v>5218.2299999999996</v>
+        <v>19417.669999999998</v>
       </c>
       <c r="F62">
-        <v>5305.24</v>
+        <v>19312.509999999998</v>
       </c>
       <c r="G62">
-        <v>5342.49</v>
+        <v>19221.439999999999</v>
       </c>
       <c r="H62">
-        <v>5331.15</v>
+        <v>18957.650000000001</v>
       </c>
       <c r="I62">
-        <v>5270.69</v>
+        <v>19342.46</v>
       </c>
       <c r="J62">
-        <v>5278.34</v>
+        <v>19428.64</v>
       </c>
       <c r="K62">
-        <v>5292.79</v>
+        <v>19764.95</v>
       </c>
       <c r="L62">
-        <v>5300.71</v>
+        <v>19416.13</v>
       </c>
       <c r="M62">
-        <v>5381.33</v>
+        <v>18869.64</v>
       </c>
       <c r="N62">
-        <v>5443.11</v>
+        <v>18382.2</v>
       </c>
       <c r="O62">
-        <v>5500.28</v>
+        <v>18050.03</v>
       </c>
     </row>
     <row r="63" spans="1:15">
@@ -3627,93 +3627,93 @@
         <v>3</v>
       </c>
       <c r="B63" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C63">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D63">
-        <v>5568.17</v>
+        <v>18235.560000000001</v>
       </c>
       <c r="E63">
-        <v>5685.11</v>
+        <v>18509.310000000001</v>
       </c>
       <c r="F63">
-        <v>5688.98</v>
+        <v>18723.32</v>
       </c>
       <c r="G63">
-        <v>5705.86</v>
+        <v>19247.82</v>
       </c>
       <c r="H63">
-        <v>5739.05</v>
+        <v>19303.25</v>
       </c>
       <c r="I63">
-        <v>5727.79</v>
+        <v>19634.66</v>
       </c>
       <c r="J63">
-        <v>5761.93</v>
+        <v>20044.39</v>
       </c>
       <c r="K63">
-        <v>6153.96</v>
+        <v>20555.47</v>
       </c>
       <c r="L63">
-        <v>6293.9</v>
+        <v>22615.47</v>
       </c>
       <c r="M63">
-        <v>6445.65</v>
+        <v>24416.85</v>
       </c>
       <c r="N63">
-        <v>6468.99</v>
+        <v>25148.02</v>
       </c>
       <c r="O63">
-        <v>6491.95</v>
+        <v>27388.18</v>
       </c>
     </row>
     <row r="64" spans="1:15">
-      <c r="A64" t="s">
+      <c r="A64" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B64" t="s">
-        <v>23</v>
-      </c>
-      <c r="C64">
-        <v>2019</v>
+      <c r="B64" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C64" s="3">
+        <v>2021</v>
       </c>
       <c r="D64">
-        <v>6934.9</v>
+        <v>31141.16</v>
       </c>
       <c r="E64">
-        <v>6988.65</v>
+        <v>32932.199999999997</v>
       </c>
       <c r="F64">
-        <v>6972.11</v>
+        <v>37876.339999999997</v>
       </c>
       <c r="G64">
-        <v>6966.47</v>
+        <v>38480.080000000002</v>
       </c>
       <c r="H64">
-        <v>6955.62</v>
+        <v>39082.28</v>
       </c>
       <c r="I64">
-        <v>6947.21</v>
+        <v>37874.47</v>
       </c>
       <c r="J64">
-        <v>6824.78</v>
+        <v>37453.39</v>
       </c>
       <c r="K64">
-        <v>6453.25</v>
+        <v>37087.440000000002</v>
       </c>
       <c r="L64">
-        <v>6227.34</v>
+        <v>35493.32</v>
       </c>
       <c r="M64">
-        <v>6139.78</v>
+        <v>36366.019999999997</v>
       </c>
       <c r="N64">
-        <v>6140.22</v>
+        <v>37364.980000000003</v>
       </c>
       <c r="O64">
-        <v>6135.65</v>
+        <v>37351.54</v>
       </c>
     </row>
     <row r="65" spans="1:15">
@@ -3724,419 +3724,419 @@
         <v>23</v>
       </c>
       <c r="C65">
-        <v>2020</v>
+        <v>2013</v>
       </c>
       <c r="D65">
-        <v>6095.3</v>
+        <v>2576.0700000000002</v>
       </c>
       <c r="E65">
-        <v>6293.15</v>
+        <v>2650.12</v>
       </c>
       <c r="F65">
-        <v>6287.08</v>
+        <v>2677.09</v>
       </c>
       <c r="G65">
-        <v>6715.91</v>
+        <v>2681.47</v>
       </c>
       <c r="H65">
-        <v>6838.45</v>
+        <v>2685.55</v>
       </c>
       <c r="I65">
-        <v>6853.49</v>
+        <v>2667.11</v>
       </c>
       <c r="J65">
-        <v>6764.82</v>
+        <v>2632.77</v>
       </c>
       <c r="K65">
-        <v>6770.64</v>
+        <v>2428.0300000000002</v>
       </c>
       <c r="L65">
-        <v>6860</v>
+        <v>2281.35</v>
       </c>
       <c r="M65">
-        <v>7501.98</v>
+        <v>2234.9899999999998</v>
       </c>
       <c r="N65">
-        <v>8007.57</v>
+        <v>2261.6799999999998</v>
       </c>
       <c r="O65">
-        <v>7988.87</v>
+        <v>2311.48</v>
       </c>
     </row>
     <row r="66" spans="1:15">
       <c r="A66" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="B66" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C66">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D66">
-        <v>55.72</v>
+        <v>2341.9499999999998</v>
       </c>
       <c r="E66">
-        <v>55.39</v>
+        <v>2394.67</v>
       </c>
       <c r="F66">
-        <v>54.68</v>
+        <v>2483.87</v>
       </c>
       <c r="G66">
-        <v>54.19</v>
+        <v>2691.36</v>
       </c>
       <c r="H66">
-        <v>54.23</v>
+        <v>2849.12</v>
       </c>
       <c r="I66">
-        <v>53.77</v>
+        <v>2950.67</v>
       </c>
       <c r="J66">
-        <v>53.67</v>
+        <v>2965.1</v>
       </c>
       <c r="K66">
-        <v>53.6</v>
+        <v>2933.33</v>
       </c>
       <c r="L66">
-        <v>53.75</v>
+        <v>2971.02</v>
       </c>
       <c r="M66">
-        <v>53.64</v>
+        <v>3008.55</v>
       </c>
       <c r="N66">
-        <v>53.2</v>
+        <v>3038.32</v>
       </c>
       <c r="O66">
-        <v>53.1</v>
+        <v>3143.43</v>
       </c>
     </row>
     <row r="67" spans="1:15">
       <c r="A67" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="B67" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C67">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D67">
-        <v>53.58</v>
+        <v>3424.32</v>
       </c>
       <c r="E67">
-        <v>53.83</v>
+        <v>4031.64</v>
       </c>
       <c r="F67">
-        <v>53.63</v>
+        <v>4432.8999999999996</v>
       </c>
       <c r="G67">
-        <v>54.65</v>
+        <v>4489.5200000000004</v>
       </c>
       <c r="H67">
-        <v>55.28</v>
+        <v>4279.3500000000004</v>
       </c>
       <c r="I67">
-        <v>56.41</v>
+        <v>4027.79</v>
       </c>
       <c r="J67">
-        <v>58.61</v>
+        <v>3952.95</v>
       </c>
       <c r="K67">
-        <v>60.06</v>
+        <v>3971.69</v>
       </c>
       <c r="L67">
-        <v>63.02</v>
+        <v>3977.41</v>
       </c>
       <c r="M67">
-        <v>65.239999999999995</v>
+        <v>3922.51</v>
       </c>
       <c r="N67">
-        <v>66.34</v>
+        <v>4104.3500000000004</v>
       </c>
       <c r="O67">
-        <v>68.69</v>
+        <v>4223.05</v>
       </c>
     </row>
     <row r="68" spans="1:15">
       <c r="A68" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="B68" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C68">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D68">
-        <v>71.83</v>
+        <v>4541.78</v>
       </c>
       <c r="E68">
-        <v>73.510000000000005</v>
+        <v>4619.6899999999996</v>
       </c>
       <c r="F68">
-        <v>76.7</v>
+        <v>4624.55</v>
       </c>
       <c r="G68">
-        <v>78.2</v>
+        <v>4532.33</v>
       </c>
       <c r="H68">
-        <v>79.58</v>
+        <v>4485.67</v>
       </c>
       <c r="I68">
-        <v>80.36</v>
+        <v>4550.96</v>
       </c>
       <c r="J68">
-        <v>81.93</v>
+        <v>4539.92</v>
       </c>
       <c r="K68">
-        <v>83.54</v>
+        <v>4517.3900000000003</v>
       </c>
       <c r="L68">
-        <v>84.31</v>
+        <v>4551.71</v>
       </c>
       <c r="M68">
-        <v>83.94</v>
+        <v>4587.97</v>
       </c>
       <c r="N68">
-        <v>84.02</v>
+        <v>4722.3900000000003</v>
       </c>
       <c r="O68">
-        <v>84.02</v>
+        <v>4804.8999999999996</v>
       </c>
     </row>
     <row r="69" spans="1:15">
       <c r="A69" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C69">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D69">
-        <v>84.29</v>
+        <v>4836.33</v>
       </c>
       <c r="E69">
-        <v>83.73</v>
+        <v>5218.2299999999996</v>
       </c>
       <c r="F69">
-        <v>82.84</v>
+        <v>5305.24</v>
       </c>
       <c r="G69">
-        <v>83.25</v>
+        <v>5342.49</v>
       </c>
       <c r="H69">
-        <v>82.87</v>
+        <v>5331.15</v>
       </c>
       <c r="I69">
-        <v>82.46</v>
+        <v>5270.69</v>
       </c>
       <c r="J69">
-        <v>82.76</v>
+        <v>5278.34</v>
       </c>
       <c r="K69">
-        <v>82.85</v>
+        <v>5292.79</v>
       </c>
       <c r="L69">
-        <v>83.77</v>
+        <v>5300.71</v>
       </c>
       <c r="M69">
-        <v>84.3</v>
+        <v>5381.33</v>
       </c>
       <c r="N69">
-        <v>84.49</v>
+        <v>5443.11</v>
       </c>
       <c r="O69">
-        <v>85.61</v>
+        <v>5500.28</v>
       </c>
     </row>
     <row r="70" spans="1:15">
       <c r="A70" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="B70" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C70">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D70">
-        <v>89.46</v>
+        <v>5568.17</v>
       </c>
       <c r="E70">
-        <v>93.68</v>
+        <v>5685.11</v>
       </c>
       <c r="F70">
-        <v>95.69</v>
+        <v>5688.98</v>
       </c>
       <c r="G70">
-        <v>97.49</v>
+        <v>5705.86</v>
       </c>
       <c r="H70">
-        <v>99.28</v>
+        <v>5739.05</v>
       </c>
       <c r="I70">
-        <v>102.7</v>
+        <v>5727.79</v>
       </c>
       <c r="J70">
-        <v>105.43</v>
+        <v>5761.93</v>
       </c>
       <c r="K70">
-        <v>106.84</v>
+        <v>6153.96</v>
       </c>
       <c r="L70">
-        <v>110.1</v>
+        <v>6293.9</v>
       </c>
       <c r="M70">
-        <v>112.12</v>
+        <v>6445.65</v>
       </c>
       <c r="N70">
-        <v>112.53</v>
+        <v>6468.99</v>
       </c>
       <c r="O70">
-        <v>114.3</v>
+        <v>6491.95</v>
       </c>
     </row>
     <row r="71" spans="1:15">
       <c r="A71" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="B71" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C71">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D71">
-        <v>117.14</v>
+        <v>6934.9</v>
       </c>
       <c r="E71">
-        <v>120.39</v>
+        <v>6988.65</v>
       </c>
       <c r="F71">
-        <v>122.16</v>
+        <v>6972.11</v>
       </c>
       <c r="G71">
-        <v>124.7</v>
+        <v>6966.47</v>
       </c>
       <c r="H71">
-        <v>124.48</v>
+        <v>6955.62</v>
       </c>
       <c r="I71">
-        <v>124.41</v>
+        <v>6947.21</v>
       </c>
       <c r="J71">
-        <v>124.51</v>
+        <v>6824.78</v>
       </c>
       <c r="K71">
-        <v>124.99</v>
+        <v>6453.25</v>
       </c>
       <c r="L71">
-        <v>126</v>
+        <v>6227.34</v>
       </c>
       <c r="M71">
-        <v>126.93</v>
+        <v>6139.78</v>
       </c>
       <c r="N71">
-        <v>127.43</v>
+        <v>6140.22</v>
       </c>
       <c r="O71">
-        <v>128.12</v>
+        <v>6135.65</v>
       </c>
     </row>
     <row r="72" spans="1:15">
       <c r="A72" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="B72" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C72">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D72">
-        <v>129.064471138275</v>
+        <v>6095.3</v>
       </c>
       <c r="E72">
-        <v>128.36000000000001</v>
+        <v>6293.15</v>
       </c>
       <c r="F72">
-        <v>127.56</v>
+        <v>6287.08</v>
       </c>
       <c r="G72">
-        <v>128.5</v>
+        <v>6715.91</v>
       </c>
       <c r="H72">
-        <v>128.71</v>
+        <v>6838.45</v>
       </c>
       <c r="I72">
-        <v>128.5</v>
+        <v>6853.49</v>
       </c>
       <c r="J72">
-        <v>129.37</v>
+        <v>6764.82</v>
       </c>
       <c r="K72">
-        <v>130.24</v>
+        <v>6770.64</v>
       </c>
       <c r="L72">
-        <v>131.12</v>
+        <v>6860</v>
       </c>
       <c r="M72">
-        <v>132.19999999999999</v>
+        <v>7501.98</v>
       </c>
       <c r="N72">
-        <v>132.05000000000001</v>
+        <v>8007.57</v>
       </c>
       <c r="O72">
-        <v>132.81</v>
+        <v>7988.87</v>
       </c>
     </row>
     <row r="73" spans="1:15">
-      <c r="A73" t="s">
-        <v>24</v>
-      </c>
-      <c r="B73" t="s">
-        <v>18</v>
-      </c>
-      <c r="C73">
-        <v>2020</v>
+      <c r="A73" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C73" s="3">
+        <v>2021</v>
       </c>
       <c r="D73">
-        <v>134.85</v>
+        <v>8534.2800000000007</v>
       </c>
       <c r="E73">
-        <v>136.69</v>
+        <v>9095.74</v>
       </c>
       <c r="F73">
-        <v>138.07</v>
+        <v>9037.43</v>
       </c>
       <c r="G73">
-        <v>141.06</v>
+        <v>8710.66</v>
       </c>
       <c r="H73">
-        <v>141.72999999999999</v>
+        <v>8874.91</v>
       </c>
       <c r="I73">
-        <v>142.65</v>
+        <v>8591.26</v>
       </c>
       <c r="J73">
-        <v>142.44</v>
+        <v>8242.23</v>
       </c>
       <c r="K73">
-        <v>142.59</v>
+        <v>8453.4500000000007</v>
       </c>
       <c r="L73">
-        <v>143.27000000000001</v>
+        <v>8941.75</v>
       </c>
       <c r="M73">
-        <v>143.29</v>
+        <v>9037.01</v>
       </c>
       <c r="N73">
-        <v>144.16</v>
+        <v>9399.9500000000007</v>
       </c>
       <c r="O73">
-        <v>144.82</v>
+        <v>10024.530000000001</v>
       </c>
     </row>
     <row r="74" spans="1:15">
@@ -4144,46 +4144,46 @@
         <v>24</v>
       </c>
       <c r="B74" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C74">
         <v>2013</v>
       </c>
       <c r="D74">
-        <v>50.52</v>
+        <v>55.72</v>
       </c>
       <c r="E74">
-        <v>49.19</v>
+        <v>55.39</v>
       </c>
       <c r="F74">
-        <v>48.43</v>
+        <v>54.68</v>
       </c>
       <c r="G74">
-        <v>48.24</v>
+        <v>54.19</v>
       </c>
       <c r="H74">
-        <v>49.12</v>
+        <v>54.23</v>
       </c>
       <c r="I74">
-        <v>48.94</v>
+        <v>53.77</v>
       </c>
       <c r="J74">
-        <v>49.2</v>
+        <v>53.67</v>
       </c>
       <c r="K74">
-        <v>49.67</v>
+        <v>53.6</v>
       </c>
       <c r="L74">
-        <v>49.94</v>
+        <v>53.75</v>
       </c>
       <c r="M74">
-        <v>49.6</v>
+        <v>53.64</v>
       </c>
       <c r="N74">
-        <v>49.04</v>
+        <v>53.2</v>
       </c>
       <c r="O74">
-        <v>48.7</v>
+        <v>53.1</v>
       </c>
     </row>
     <row r="75" spans="1:15">
@@ -4191,46 +4191,46 @@
         <v>24</v>
       </c>
       <c r="B75" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C75">
         <v>2014</v>
       </c>
       <c r="D75">
-        <v>48.81</v>
+        <v>53.58</v>
       </c>
       <c r="E75">
-        <v>48.27</v>
+        <v>53.83</v>
       </c>
       <c r="F75">
-        <v>48.11</v>
+        <v>53.63</v>
       </c>
       <c r="G75">
-        <v>52.29</v>
+        <v>54.65</v>
       </c>
       <c r="H75">
-        <v>54.61</v>
+        <v>55.28</v>
       </c>
       <c r="I75">
-        <v>55.49</v>
+        <v>56.41</v>
       </c>
       <c r="J75">
-        <v>57.35</v>
+        <v>58.61</v>
       </c>
       <c r="K75">
-        <v>58.64</v>
+        <v>60.06</v>
       </c>
       <c r="L75">
-        <v>62.54</v>
+        <v>63.02</v>
       </c>
       <c r="M75">
-        <v>63.6</v>
+        <v>65.239999999999995</v>
       </c>
       <c r="N75">
-        <v>61.89</v>
+        <v>66.34</v>
       </c>
       <c r="O75">
-        <v>62.78</v>
+        <v>68.69</v>
       </c>
     </row>
     <row r="76" spans="1:15">
@@ -4238,46 +4238,46 @@
         <v>24</v>
       </c>
       <c r="B76" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C76">
         <v>2015</v>
       </c>
       <c r="D76">
-        <v>62.95</v>
+        <v>71.83</v>
       </c>
       <c r="E76">
-        <v>61.69</v>
+        <v>73.510000000000005</v>
       </c>
       <c r="F76">
-        <v>66.790000000000006</v>
+        <v>76.7</v>
       </c>
       <c r="G76">
-        <v>69.489999999999995</v>
+        <v>78.2</v>
       </c>
       <c r="H76">
-        <v>72.52</v>
+        <v>79.58</v>
       </c>
       <c r="I76">
-        <v>74</v>
+        <v>80.36</v>
       </c>
       <c r="J76">
-        <v>77.61</v>
+        <v>81.93</v>
       </c>
       <c r="K76">
-        <v>82.28</v>
+        <v>83.54</v>
       </c>
       <c r="L76">
-        <v>82.17</v>
+        <v>84.31</v>
       </c>
       <c r="M76">
-        <v>78.39</v>
+        <v>83.94</v>
       </c>
       <c r="N76">
-        <v>76.709999999999994</v>
+        <v>84.02</v>
       </c>
       <c r="O76">
-        <v>74.989999999999995</v>
+        <v>84.02</v>
       </c>
     </row>
     <row r="77" spans="1:15">
@@ -4285,46 +4285,46 @@
         <v>24</v>
       </c>
       <c r="B77" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C77">
         <v>2016</v>
       </c>
       <c r="D77">
-        <v>74.48</v>
+        <v>84.29</v>
       </c>
       <c r="E77">
-        <v>71.48</v>
+        <v>83.73</v>
       </c>
       <c r="F77">
-        <v>70.41</v>
+        <v>82.84</v>
       </c>
       <c r="G77">
-        <v>72.39</v>
+        <v>83.25</v>
       </c>
       <c r="H77">
-        <v>73.83</v>
+        <v>82.87</v>
       </c>
       <c r="I77">
-        <v>73.11</v>
+        <v>82.46</v>
       </c>
       <c r="J77">
-        <v>74.56</v>
+        <v>82.76</v>
       </c>
       <c r="K77">
-        <v>75.33</v>
+        <v>82.85</v>
       </c>
       <c r="L77">
-        <v>78.11</v>
+        <v>83.77</v>
       </c>
       <c r="M77">
-        <v>76.77</v>
+        <v>84.3</v>
       </c>
       <c r="N77">
-        <v>75.709999999999994</v>
+        <v>84.49</v>
       </c>
       <c r="O77">
-        <v>77.03</v>
+        <v>85.61</v>
       </c>
     </row>
     <row r="78" spans="1:15">
@@ -4332,46 +4332,46 @@
         <v>24</v>
       </c>
       <c r="B78" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C78">
         <v>2017</v>
       </c>
       <c r="D78">
-        <v>77.59</v>
+        <v>89.46</v>
       </c>
       <c r="E78">
-        <v>80.06</v>
+        <v>93.68</v>
       </c>
       <c r="F78">
-        <v>80.8</v>
+        <v>95.69</v>
       </c>
       <c r="G78">
-        <v>84.62</v>
+        <v>97.49</v>
       </c>
       <c r="H78">
-        <v>90.71</v>
+        <v>99.28</v>
       </c>
       <c r="I78">
-        <v>99.13</v>
+        <v>102.7</v>
       </c>
       <c r="J78">
-        <v>105.64</v>
+        <v>105.43</v>
       </c>
       <c r="K78">
-        <v>107.57</v>
+        <v>106.84</v>
       </c>
       <c r="L78">
-        <v>112.25</v>
+        <v>110.1</v>
       </c>
       <c r="M78">
-        <v>111.4</v>
+        <v>112.12</v>
       </c>
       <c r="N78">
-        <v>109.09</v>
+        <v>112.53</v>
       </c>
       <c r="O78">
-        <v>109.47</v>
+        <v>114.3</v>
       </c>
     </row>
     <row r="79" spans="1:15">
@@ -4379,46 +4379,46 @@
         <v>24</v>
       </c>
       <c r="B79" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C79">
         <v>2018</v>
       </c>
       <c r="D79">
-        <v>110.28</v>
+        <v>117.14</v>
       </c>
       <c r="E79">
-        <v>107.93</v>
+        <v>120.39</v>
       </c>
       <c r="F79">
-        <v>109.8</v>
+        <v>122.16</v>
       </c>
       <c r="G79">
-        <v>115.76</v>
+        <v>124.7</v>
       </c>
       <c r="H79">
-        <v>115.14</v>
+        <v>124.48</v>
       </c>
       <c r="I79">
-        <v>114.28</v>
+        <v>124.41</v>
       </c>
       <c r="J79">
-        <v>114.26</v>
+        <v>124.51</v>
       </c>
       <c r="K79">
-        <v>114.65</v>
+        <v>124.99</v>
       </c>
       <c r="L79">
-        <v>117.88</v>
+        <v>126</v>
       </c>
       <c r="M79">
-        <v>118.22</v>
+        <v>126.93</v>
       </c>
       <c r="N79">
-        <v>115.86</v>
+        <v>127.43</v>
       </c>
       <c r="O79">
-        <v>115.42</v>
+        <v>128.12</v>
       </c>
     </row>
     <row r="80" spans="1:15">
@@ -4426,46 +4426,46 @@
         <v>24</v>
       </c>
       <c r="B80" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C80">
         <v>2019</v>
       </c>
       <c r="D80">
-        <v>116.309142480205</v>
+        <v>129.064471138275</v>
       </c>
       <c r="E80">
-        <v>112.91</v>
+        <v>128.36000000000001</v>
       </c>
       <c r="F80">
-        <v>111.63</v>
+        <v>127.56</v>
       </c>
       <c r="G80">
-        <v>116.17</v>
+        <v>128.5</v>
       </c>
       <c r="H80">
-        <v>119.26</v>
+        <v>128.71</v>
       </c>
       <c r="I80">
-        <v>118.95</v>
+        <v>128.5</v>
       </c>
       <c r="J80">
-        <v>119.63</v>
+        <v>129.37</v>
       </c>
       <c r="K80">
-        <v>121.63</v>
+        <v>130.24</v>
       </c>
       <c r="L80">
-        <v>122.78</v>
+        <v>131.12</v>
       </c>
       <c r="M80">
-        <v>122.31</v>
+        <v>132.19999999999999</v>
       </c>
       <c r="N80">
-        <v>119.32</v>
+        <v>132.05000000000001</v>
       </c>
       <c r="O80">
-        <v>119.24</v>
+        <v>132.81</v>
       </c>
     </row>
     <row r="81" spans="1:15">
@@ -4473,93 +4473,93 @@
         <v>24</v>
       </c>
       <c r="B81" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C81">
         <v>2020</v>
       </c>
       <c r="D81">
-        <v>117.98</v>
+        <v>134.85</v>
       </c>
       <c r="E81">
-        <v>115.75</v>
+        <v>136.69</v>
       </c>
       <c r="F81">
-        <v>116.7</v>
+        <v>138.07</v>
       </c>
       <c r="G81">
-        <v>121.9</v>
+        <v>141.06</v>
       </c>
       <c r="H81">
-        <v>120.07</v>
+        <v>141.72999999999999</v>
       </c>
       <c r="I81">
-        <v>118.76</v>
+        <v>142.65</v>
       </c>
       <c r="J81">
-        <v>118.1</v>
+        <v>142.44</v>
       </c>
       <c r="K81">
-        <v>119.51</v>
+        <v>142.59</v>
       </c>
       <c r="L81">
-        <v>119.37</v>
+        <v>143.27000000000001</v>
       </c>
       <c r="M81">
-        <v>119.13</v>
+        <v>143.29</v>
       </c>
       <c r="N81">
-        <v>117.46</v>
+        <v>144.16</v>
       </c>
       <c r="O81">
-        <v>115.86</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15">
-      <c r="A82" t="s">
+        <v>144.82</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" s="3" customFormat="1">
+      <c r="A82" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B82" t="s">
-        <v>17</v>
-      </c>
-      <c r="C82">
-        <v>2013</v>
-      </c>
-      <c r="D82">
-        <v>22.72</v>
-      </c>
-      <c r="E82">
-        <v>22.54</v>
-      </c>
-      <c r="F82">
-        <v>22.38</v>
-      </c>
-      <c r="G82">
-        <v>22.35</v>
-      </c>
-      <c r="H82">
-        <v>22.5</v>
-      </c>
-      <c r="I82">
-        <v>22.36</v>
-      </c>
-      <c r="J82">
-        <v>22.43</v>
-      </c>
-      <c r="K82">
-        <v>22.44</v>
-      </c>
-      <c r="L82">
-        <v>22.34</v>
-      </c>
-      <c r="M82">
-        <v>22.21</v>
-      </c>
-      <c r="N82">
-        <v>22.08</v>
-      </c>
-      <c r="O82">
-        <v>21.9</v>
+      <c r="B82" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C82" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D82" s="3">
+        <v>149.51</v>
+      </c>
+      <c r="E82" s="3">
+        <v>153.99</v>
+      </c>
+      <c r="F82" s="3">
+        <v>157.24</v>
+      </c>
+      <c r="G82" s="3">
+        <v>159.13</v>
+      </c>
+      <c r="H82" s="3">
+        <v>160.30000000000001</v>
+      </c>
+      <c r="I82" s="3">
+        <v>160.94</v>
+      </c>
+      <c r="J82" s="3">
+        <v>162.44999999999999</v>
+      </c>
+      <c r="K82" s="3">
+        <v>165</v>
+      </c>
+      <c r="L82" s="3">
+        <v>172.04</v>
+      </c>
+      <c r="M82" s="3">
+        <v>175.51</v>
+      </c>
+      <c r="N82" s="3">
+        <v>179.37</v>
+      </c>
+      <c r="O82" s="3">
+        <v>182.84</v>
       </c>
     </row>
     <row r="83" spans="1:15">
@@ -4567,46 +4567,46 @@
         <v>24</v>
       </c>
       <c r="B83" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C83">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D83">
-        <v>21.88</v>
+        <v>50.52</v>
       </c>
       <c r="E83">
-        <v>21.84</v>
+        <v>49.19</v>
       </c>
       <c r="F83">
-        <v>21.8</v>
+        <v>48.43</v>
       </c>
       <c r="G83">
-        <v>22.08</v>
+        <v>48.24</v>
       </c>
       <c r="H83">
-        <v>23.71</v>
+        <v>49.12</v>
       </c>
       <c r="I83">
-        <v>26.04</v>
+        <v>48.94</v>
       </c>
       <c r="J83">
-        <v>28.7</v>
+        <v>49.2</v>
       </c>
       <c r="K83">
-        <v>28.52</v>
+        <v>49.67</v>
       </c>
       <c r="L83">
-        <v>28.94</v>
+        <v>49.94</v>
       </c>
       <c r="M83">
-        <v>30.73</v>
+        <v>49.6</v>
       </c>
       <c r="N83">
-        <v>31</v>
+        <v>49.04</v>
       </c>
       <c r="O83">
-        <v>31.09</v>
+        <v>48.7</v>
       </c>
     </row>
     <row r="84" spans="1:15">
@@ -4614,46 +4614,46 @@
         <v>24</v>
       </c>
       <c r="B84" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C84">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D84">
-        <v>31.29</v>
+        <v>48.81</v>
       </c>
       <c r="E84">
-        <v>30.67</v>
+        <v>48.27</v>
       </c>
       <c r="F84">
-        <v>33.26</v>
+        <v>48.11</v>
       </c>
       <c r="G84">
-        <v>36.090000000000003</v>
+        <v>52.29</v>
       </c>
       <c r="H84">
-        <v>36.79</v>
+        <v>54.61</v>
       </c>
       <c r="I84">
-        <v>36.880000000000003</v>
+        <v>55.49</v>
       </c>
       <c r="J84">
-        <v>36.880000000000003</v>
+        <v>57.35</v>
       </c>
       <c r="K84">
-        <v>37.200000000000003</v>
+        <v>58.64</v>
       </c>
       <c r="L84">
-        <v>38.1</v>
+        <v>62.54</v>
       </c>
       <c r="M84">
-        <v>38.130000000000003</v>
+        <v>63.6</v>
       </c>
       <c r="N84">
-        <v>39.19</v>
+        <v>61.89</v>
       </c>
       <c r="O84">
-        <v>39.18</v>
+        <v>62.78</v>
       </c>
     </row>
     <row r="85" spans="1:15">
@@ -4661,46 +4661,46 @@
         <v>24</v>
       </c>
       <c r="B85" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C85">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D85">
-        <v>39.619999999999997</v>
+        <v>62.95</v>
       </c>
       <c r="E85">
-        <v>38.93</v>
+        <v>61.69</v>
       </c>
       <c r="F85">
-        <v>38.79</v>
+        <v>66.790000000000006</v>
       </c>
       <c r="G85">
-        <v>38.85</v>
+        <v>69.489999999999995</v>
       </c>
       <c r="H85">
-        <v>39.79</v>
+        <v>72.52</v>
       </c>
       <c r="I85">
-        <v>39.81</v>
+        <v>74</v>
       </c>
       <c r="J85">
-        <v>40.06</v>
+        <v>77.61</v>
       </c>
       <c r="K85">
-        <v>40.25</v>
+        <v>82.28</v>
       </c>
       <c r="L85">
-        <v>41.53</v>
+        <v>82.17</v>
       </c>
       <c r="M85">
-        <v>42.28</v>
+        <v>78.39</v>
       </c>
       <c r="N85">
-        <v>41.88</v>
+        <v>76.709999999999994</v>
       </c>
       <c r="O85">
-        <v>42.02</v>
+        <v>74.989999999999995</v>
       </c>
     </row>
     <row r="86" spans="1:15">
@@ -4708,46 +4708,46 @@
         <v>24</v>
       </c>
       <c r="B86" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C86">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D86">
-        <v>42.12</v>
+        <v>74.48</v>
       </c>
       <c r="E86">
-        <v>42.7</v>
+        <v>71.48</v>
       </c>
       <c r="F86">
-        <v>42.95</v>
+        <v>70.41</v>
       </c>
       <c r="G86">
-        <v>43.83</v>
+        <v>72.39</v>
       </c>
       <c r="H86">
-        <v>44.45</v>
+        <v>73.83</v>
       </c>
       <c r="I86">
-        <v>45.35</v>
+        <v>73.11</v>
       </c>
       <c r="J86">
-        <v>49.85</v>
+        <v>74.56</v>
       </c>
       <c r="K86">
-        <v>53.94</v>
+        <v>75.33</v>
       </c>
       <c r="L86">
-        <v>55.5</v>
+        <v>78.11</v>
       </c>
       <c r="M86">
-        <v>55.26</v>
+        <v>76.77</v>
       </c>
       <c r="N86">
-        <v>53.95</v>
+        <v>75.709999999999994</v>
       </c>
       <c r="O86">
-        <v>53.9</v>
+        <v>77.03</v>
       </c>
     </row>
     <row r="87" spans="1:15">
@@ -4755,46 +4755,46 @@
         <v>24</v>
       </c>
       <c r="B87" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C87">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D87">
-        <v>54.86</v>
+        <v>77.59</v>
       </c>
       <c r="E87">
-        <v>53.72</v>
+        <v>80.06</v>
       </c>
       <c r="F87">
-        <v>54.08</v>
+        <v>80.8</v>
       </c>
       <c r="G87">
-        <v>55.17</v>
+        <v>84.62</v>
       </c>
       <c r="H87">
-        <v>54.81</v>
+        <v>90.71</v>
       </c>
       <c r="I87">
-        <v>54.78</v>
+        <v>99.13</v>
       </c>
       <c r="J87">
-        <v>54.9</v>
+        <v>105.64</v>
       </c>
       <c r="K87">
-        <v>55.69</v>
+        <v>107.57</v>
       </c>
       <c r="L87">
-        <v>58.62</v>
+        <v>112.25</v>
       </c>
       <c r="M87">
-        <v>58.64</v>
+        <v>111.4</v>
       </c>
       <c r="N87">
-        <v>58.32</v>
+        <v>109.09</v>
       </c>
       <c r="O87">
-        <v>57.83</v>
+        <v>109.47</v>
       </c>
     </row>
     <row r="88" spans="1:15">
@@ -4802,46 +4802,46 @@
         <v>24</v>
       </c>
       <c r="B88" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C88">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D88">
-        <v>58.656996779134801</v>
+        <v>110.28</v>
       </c>
       <c r="E88">
-        <v>58.15</v>
+        <v>107.93</v>
       </c>
       <c r="F88">
-        <v>58.32</v>
+        <v>109.8</v>
       </c>
       <c r="G88">
-        <v>58.4</v>
+        <v>115.76</v>
       </c>
       <c r="H88">
-        <v>59.37</v>
+        <v>115.14</v>
       </c>
       <c r="I88">
-        <v>60.22</v>
+        <v>114.28</v>
       </c>
       <c r="J88">
-        <v>61.78</v>
+        <v>114.26</v>
       </c>
       <c r="K88">
-        <v>62.22</v>
+        <v>114.65</v>
       </c>
       <c r="L88">
-        <v>62.27</v>
+        <v>117.88</v>
       </c>
       <c r="M88">
-        <v>62.07</v>
+        <v>118.22</v>
       </c>
       <c r="N88">
-        <v>60.74</v>
+        <v>115.86</v>
       </c>
       <c r="O88">
-        <v>59.37</v>
+        <v>115.42</v>
       </c>
     </row>
     <row r="89" spans="1:15">
@@ -4849,46 +4849,46 @@
         <v>24</v>
       </c>
       <c r="B89" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C89">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D89">
-        <v>58.23</v>
+        <v>116.309142480205</v>
       </c>
       <c r="E89">
-        <v>55.09</v>
+        <v>112.91</v>
       </c>
       <c r="F89">
-        <v>54.12</v>
+        <v>111.63</v>
       </c>
       <c r="G89">
-        <v>52.22</v>
+        <v>116.17</v>
       </c>
       <c r="H89">
-        <v>49.59</v>
+        <v>119.26</v>
       </c>
       <c r="I89">
-        <v>50.5</v>
+        <v>118.95</v>
       </c>
       <c r="J89">
-        <v>51.25</v>
+        <v>119.63</v>
       </c>
       <c r="K89">
-        <v>52.18</v>
+        <v>121.63</v>
       </c>
       <c r="L89">
-        <v>52.93</v>
+        <v>122.78</v>
       </c>
       <c r="M89">
-        <v>54.38</v>
+        <v>122.31</v>
       </c>
       <c r="N89">
-        <v>55.17</v>
+        <v>119.32</v>
       </c>
       <c r="O89">
-        <v>55.96</v>
+        <v>119.24</v>
       </c>
     </row>
     <row r="90" spans="1:15">
@@ -4896,93 +4896,93 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C90">
-        <v>2013</v>
+        <v>2020</v>
       </c>
       <c r="D90">
-        <v>7.26</v>
+        <v>117.98</v>
       </c>
       <c r="E90">
-        <v>7.29</v>
+        <v>115.75</v>
       </c>
       <c r="F90">
-        <v>7.33</v>
+        <v>116.7</v>
       </c>
       <c r="G90">
-        <v>7.36</v>
+        <v>121.9</v>
       </c>
       <c r="H90">
-        <v>7.32</v>
+        <v>120.07</v>
       </c>
       <c r="I90">
-        <v>7.34</v>
+        <v>118.76</v>
       </c>
       <c r="J90">
-        <v>7.39</v>
+        <v>118.1</v>
       </c>
       <c r="K90">
-        <v>7.47</v>
+        <v>119.51</v>
       </c>
       <c r="L90">
-        <v>7.61</v>
+        <v>119.37</v>
       </c>
       <c r="M90">
-        <v>7.73</v>
+        <v>119.13</v>
       </c>
       <c r="N90">
-        <v>7.82</v>
+        <v>117.46</v>
       </c>
       <c r="O90">
-        <v>7.98</v>
+        <v>115.86</v>
       </c>
     </row>
     <row r="91" spans="1:15">
-      <c r="A91" t="s">
+      <c r="A91" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B91" t="s">
-        <v>19</v>
-      </c>
-      <c r="C91">
-        <v>2014</v>
+      <c r="B91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C91" s="3">
+        <v>2021</v>
       </c>
       <c r="D91">
-        <v>8.35</v>
+        <v>115.16</v>
       </c>
       <c r="E91">
-        <v>8.4700000000000006</v>
+        <v>115.33</v>
       </c>
       <c r="F91">
-        <v>8.6300000000000008</v>
+        <v>117.7</v>
       </c>
       <c r="G91">
-        <v>8.74</v>
+        <v>118.33</v>
       </c>
       <c r="H91">
-        <v>8.7100000000000009</v>
+        <v>120.63</v>
       </c>
       <c r="I91">
-        <v>8.68</v>
+        <v>120.11</v>
       </c>
       <c r="J91">
-        <v>8.6999999999999993</v>
+        <v>120.67</v>
       </c>
       <c r="K91">
-        <v>8.76</v>
+        <v>122.11</v>
       </c>
       <c r="L91">
-        <v>8.91</v>
+        <v>124.45</v>
       </c>
       <c r="M91">
-        <v>9.09</v>
+        <v>124.58</v>
       </c>
       <c r="N91">
-        <v>9.2200000000000006</v>
+        <v>123.84</v>
       </c>
       <c r="O91">
-        <v>9.3800000000000008</v>
+        <v>123.75</v>
       </c>
     </row>
     <row r="92" spans="1:15">
@@ -4990,46 +4990,46 @@
         <v>24</v>
       </c>
       <c r="B92" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C92">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D92">
-        <v>10.07</v>
+        <v>22.72</v>
       </c>
       <c r="E92">
-        <v>10.18</v>
+        <v>22.54</v>
       </c>
       <c r="F92">
-        <v>10.98</v>
+        <v>22.38</v>
       </c>
       <c r="G92">
-        <v>11.4</v>
+        <v>22.35</v>
       </c>
       <c r="H92">
-        <v>11.63</v>
+        <v>22.5</v>
       </c>
       <c r="I92">
-        <v>11.9</v>
+        <v>22.36</v>
       </c>
       <c r="J92">
-        <v>12.03</v>
+        <v>22.43</v>
       </c>
       <c r="K92">
-        <v>12.18</v>
+        <v>22.44</v>
       </c>
       <c r="L92">
-        <v>12.36</v>
+        <v>22.34</v>
       </c>
       <c r="M92">
-        <v>12.67</v>
+        <v>22.21</v>
       </c>
       <c r="N92">
-        <v>12.96</v>
+        <v>22.08</v>
       </c>
       <c r="O92">
-        <v>13.38</v>
+        <v>21.9</v>
       </c>
     </row>
     <row r="93" spans="1:15">
@@ -5037,46 +5037,46 @@
         <v>24</v>
       </c>
       <c r="B93" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C93">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D93">
-        <v>13.85</v>
+        <v>21.88</v>
       </c>
       <c r="E93">
-        <v>14.04</v>
+        <v>21.84</v>
       </c>
       <c r="F93">
-        <v>14.24</v>
+        <v>21.8</v>
       </c>
       <c r="G93">
-        <v>14.48</v>
+        <v>22.08</v>
       </c>
       <c r="H93">
-        <v>14.49</v>
+        <v>23.71</v>
       </c>
       <c r="I93">
-        <v>14.38</v>
+        <v>26.04</v>
       </c>
       <c r="J93">
-        <v>14.43</v>
+        <v>28.7</v>
       </c>
       <c r="K93">
-        <v>14.43</v>
+        <v>28.52</v>
       </c>
       <c r="L93">
-        <v>14.83</v>
+        <v>28.94</v>
       </c>
       <c r="M93">
-        <v>15.35</v>
+        <v>30.73</v>
       </c>
       <c r="N93">
-        <v>16.04</v>
+        <v>31</v>
       </c>
       <c r="O93">
-        <v>16.97</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="94" spans="1:15">
@@ -5084,46 +5084,46 @@
         <v>24</v>
       </c>
       <c r="B94" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C94">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="D94">
-        <v>17.93</v>
+        <v>31.29</v>
       </c>
       <c r="E94">
-        <v>18.579999999999998</v>
+        <v>30.67</v>
       </c>
       <c r="F94">
-        <v>19.04</v>
+        <v>33.26</v>
       </c>
       <c r="G94">
-        <v>19.260000000000002</v>
+        <v>36.090000000000003</v>
       </c>
       <c r="H94">
-        <v>19.350000000000001</v>
+        <v>36.79</v>
       </c>
       <c r="I94">
-        <v>19.29</v>
+        <v>36.880000000000003</v>
       </c>
       <c r="J94">
-        <v>19.399999999999999</v>
+        <v>36.880000000000003</v>
       </c>
       <c r="K94">
-        <v>19.61</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="L94">
-        <v>19.95</v>
+        <v>38.1</v>
       </c>
       <c r="M94">
-        <v>20.7</v>
+        <v>38.130000000000003</v>
       </c>
       <c r="N94">
-        <v>21.27</v>
+        <v>39.19</v>
       </c>
       <c r="O94">
-        <v>21.77</v>
+        <v>39.18</v>
       </c>
     </row>
     <row r="95" spans="1:15">
@@ -5131,46 +5131,46 @@
         <v>24</v>
       </c>
       <c r="B95" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C95">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D95">
-        <v>22.01</v>
+        <v>39.619999999999997</v>
       </c>
       <c r="E95">
-        <v>21.95</v>
+        <v>38.93</v>
       </c>
       <c r="F95">
-        <v>22.13</v>
+        <v>38.79</v>
       </c>
       <c r="G95">
-        <v>22.03</v>
+        <v>38.85</v>
       </c>
       <c r="H95">
-        <v>22.13</v>
+        <v>39.79</v>
       </c>
       <c r="I95">
-        <v>22.02</v>
+        <v>39.81</v>
       </c>
       <c r="J95">
-        <v>21.9</v>
+        <v>40.06</v>
       </c>
       <c r="K95">
-        <v>21.99</v>
+        <v>40.25</v>
       </c>
       <c r="L95">
-        <v>22.36</v>
+        <v>41.53</v>
       </c>
       <c r="M95">
-        <v>22.85</v>
+        <v>42.28</v>
       </c>
       <c r="N95">
-        <v>23.39</v>
+        <v>41.88</v>
       </c>
       <c r="O95">
-        <v>23.73</v>
+        <v>42.02</v>
       </c>
     </row>
     <row r="96" spans="1:15">
@@ -5178,46 +5178,46 @@
         <v>24</v>
       </c>
       <c r="B96" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C96">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D96">
-        <v>23.866237333323902</v>
+        <v>42.12</v>
       </c>
       <c r="E96">
-        <v>24.13</v>
+        <v>42.7</v>
       </c>
       <c r="F96">
-        <v>24.18</v>
+        <v>42.95</v>
       </c>
       <c r="G96">
-        <v>24.32</v>
+        <v>43.83</v>
       </c>
       <c r="H96">
-        <v>24.25</v>
+        <v>44.45</v>
       </c>
       <c r="I96">
-        <v>24.15</v>
+        <v>45.35</v>
       </c>
       <c r="J96">
-        <v>24.23</v>
+        <v>49.85</v>
       </c>
       <c r="K96">
-        <v>24.43</v>
+        <v>53.94</v>
       </c>
       <c r="L96">
-        <v>24.73</v>
+        <v>55.5</v>
       </c>
       <c r="M96">
-        <v>25.14</v>
+        <v>55.26</v>
       </c>
       <c r="N96">
-        <v>25.22</v>
+        <v>53.95</v>
       </c>
       <c r="O96">
-        <v>25.31</v>
+        <v>53.9</v>
       </c>
     </row>
     <row r="97" spans="1:15">
@@ -5225,46 +5225,46 @@
         <v>24</v>
       </c>
       <c r="B97" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C97">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D97">
-        <v>24.91</v>
+        <v>54.86</v>
       </c>
       <c r="E97">
-        <v>24.99</v>
+        <v>53.72</v>
       </c>
       <c r="F97">
-        <v>25</v>
+        <v>54.08</v>
       </c>
       <c r="G97">
-        <v>25.01</v>
+        <v>55.17</v>
       </c>
       <c r="H97">
-        <v>25.09</v>
+        <v>54.81</v>
       </c>
       <c r="I97">
-        <v>24.95</v>
+        <v>54.78</v>
       </c>
       <c r="J97">
-        <v>24.91</v>
+        <v>54.9</v>
       </c>
       <c r="K97">
-        <v>24.83</v>
+        <v>55.69</v>
       </c>
       <c r="L97">
-        <v>25</v>
+        <v>58.62</v>
       </c>
       <c r="M97">
-        <v>25.19</v>
+        <v>58.64</v>
       </c>
       <c r="N97">
-        <v>25.39</v>
+        <v>58.32</v>
       </c>
       <c r="O97">
-        <v>25.6</v>
+        <v>57.83</v>
       </c>
     </row>
     <row r="98" spans="1:15">
@@ -5272,46 +5272,46 @@
         <v>24</v>
       </c>
       <c r="B98" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C98">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="D98">
-        <v>9.0500000000000007</v>
+        <v>58.656996779134801</v>
       </c>
       <c r="E98">
-        <v>8.93</v>
+        <v>58.15</v>
       </c>
       <c r="F98">
-        <v>8.74</v>
+        <v>58.32</v>
       </c>
       <c r="G98">
-        <v>8.44</v>
+        <v>58.4</v>
       </c>
       <c r="H98">
-        <v>8.2899999999999991</v>
+        <v>59.37</v>
       </c>
       <c r="I98">
-        <v>8.08</v>
+        <v>60.22</v>
       </c>
       <c r="J98">
-        <v>7.94</v>
+        <v>61.78</v>
       </c>
       <c r="K98">
-        <v>7.91</v>
+        <v>62.22</v>
       </c>
       <c r="L98">
-        <v>7.7</v>
+        <v>62.27</v>
       </c>
       <c r="M98">
-        <v>7.61</v>
+        <v>62.07</v>
       </c>
       <c r="N98">
-        <v>7.75</v>
+        <v>60.74</v>
       </c>
       <c r="O98">
-        <v>7.65</v>
+        <v>59.37</v>
       </c>
     </row>
     <row r="99" spans="1:15">
@@ -5319,93 +5319,93 @@
         <v>24</v>
       </c>
       <c r="B99" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C99">
-        <v>2014</v>
+        <v>2020</v>
       </c>
       <c r="D99">
-        <v>8.2100000000000009</v>
+        <v>58.23</v>
       </c>
       <c r="E99">
-        <v>8.2799999999999994</v>
+        <v>55.09</v>
       </c>
       <c r="F99">
-        <v>9</v>
+        <v>54.12</v>
       </c>
       <c r="G99">
-        <v>9.65</v>
+        <v>52.22</v>
       </c>
       <c r="H99">
-        <v>10.09</v>
+        <v>49.59</v>
       </c>
       <c r="I99">
-        <v>10.24</v>
+        <v>50.5</v>
       </c>
       <c r="J99">
-        <v>10.31</v>
+        <v>51.25</v>
       </c>
       <c r="K99">
-        <v>10.44</v>
+        <v>52.18</v>
       </c>
       <c r="L99">
-        <v>10.49</v>
+        <v>52.93</v>
       </c>
       <c r="M99">
-        <v>10.58</v>
+        <v>54.38</v>
       </c>
       <c r="N99">
-        <v>11.44</v>
+        <v>55.17</v>
       </c>
       <c r="O99">
-        <v>18.07</v>
+        <v>55.96</v>
       </c>
     </row>
     <row r="100" spans="1:15">
-      <c r="A100" t="s">
+      <c r="A100" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B100" t="s">
-        <v>20</v>
-      </c>
-      <c r="C100">
-        <v>2015</v>
+      <c r="B100" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C100" s="3">
+        <v>2021</v>
       </c>
       <c r="D100">
-        <v>20.66</v>
+        <v>57.4</v>
       </c>
       <c r="E100">
-        <v>20.87</v>
+        <v>60.13</v>
       </c>
       <c r="F100">
-        <v>24.19</v>
+        <v>63.06</v>
       </c>
       <c r="G100">
-        <v>25.18</v>
+        <v>65.349999999999994</v>
       </c>
       <c r="H100">
-        <v>24.37</v>
+        <v>67.25</v>
       </c>
       <c r="I100">
-        <v>23.9</v>
+        <v>68.19</v>
       </c>
       <c r="J100">
-        <v>24.23</v>
+        <v>69.34</v>
       </c>
       <c r="K100">
-        <v>24.81</v>
+        <v>69.94</v>
       </c>
       <c r="L100">
-        <v>24.86</v>
+        <v>71.400000000000006</v>
       </c>
       <c r="M100">
-        <v>26.11</v>
+        <v>72.42</v>
       </c>
       <c r="N100">
-        <v>28.21</v>
+        <v>71.02</v>
       </c>
       <c r="O100">
-        <v>29.7</v>
+        <v>70.819999999999993</v>
       </c>
     </row>
     <row r="101" spans="1:15">
@@ -5413,46 +5413,46 @@
         <v>24</v>
       </c>
       <c r="B101" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C101">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="D101">
-        <v>29.98</v>
+        <v>7.26</v>
       </c>
       <c r="E101">
-        <v>31.37</v>
+        <v>7.29</v>
       </c>
       <c r="F101">
-        <v>33.61</v>
+        <v>7.33</v>
       </c>
       <c r="G101">
-        <v>36.75</v>
+        <v>7.36</v>
       </c>
       <c r="H101">
-        <v>38.39</v>
+        <v>7.32</v>
       </c>
       <c r="I101">
-        <v>41.16</v>
+        <v>7.34</v>
       </c>
       <c r="J101">
-        <v>42.35</v>
+        <v>7.39</v>
       </c>
       <c r="K101">
-        <v>40.01</v>
+        <v>7.47</v>
       </c>
       <c r="L101">
-        <v>36.06</v>
+        <v>7.61</v>
       </c>
       <c r="M101">
-        <v>34.24</v>
+        <v>7.73</v>
       </c>
       <c r="N101">
-        <v>34.369999999999997</v>
+        <v>7.82</v>
       </c>
       <c r="O101">
-        <v>34.65</v>
+        <v>7.98</v>
       </c>
     </row>
     <row r="102" spans="1:15">
@@ -5460,46 +5460,46 @@
         <v>24</v>
       </c>
       <c r="B102" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C102">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="D102">
-        <v>32.479999999999997</v>
+        <v>8.35</v>
       </c>
       <c r="E102">
-        <v>32.96</v>
+        <v>8.4700000000000006</v>
       </c>
       <c r="F102">
-        <v>32.93</v>
+        <v>8.6300000000000008</v>
       </c>
       <c r="G102">
-        <v>32.270000000000003</v>
+        <v>8.74</v>
       </c>
       <c r="H102">
-        <v>31.02</v>
+        <v>8.7100000000000009</v>
       </c>
       <c r="I102">
-        <v>29.78</v>
+        <v>8.68</v>
       </c>
       <c r="J102">
-        <v>28.51</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="K102">
-        <v>28.08</v>
+        <v>8.76</v>
       </c>
       <c r="L102">
-        <v>27.36</v>
+        <v>8.91</v>
       </c>
       <c r="M102">
-        <v>25.57</v>
+        <v>9.09</v>
       </c>
       <c r="N102">
-        <v>23.85</v>
+        <v>9.2200000000000006</v>
       </c>
       <c r="O102">
-        <v>22.54</v>
+        <v>9.3800000000000008</v>
       </c>
     </row>
     <row r="103" spans="1:15">
@@ -5507,46 +5507,46 @@
         <v>24</v>
       </c>
       <c r="B103" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C103">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="D103">
-        <v>21.53</v>
+        <v>10.07</v>
       </c>
       <c r="E103">
-        <v>20.84</v>
+        <v>10.18</v>
       </c>
       <c r="F103">
-        <v>20.010000000000002</v>
+        <v>10.98</v>
       </c>
       <c r="G103">
-        <v>18.78</v>
+        <v>11.4</v>
       </c>
       <c r="H103">
-        <v>17.38</v>
+        <v>11.63</v>
       </c>
       <c r="I103">
-        <v>17.18</v>
+        <v>11.9</v>
       </c>
       <c r="J103">
-        <v>17.760000000000002</v>
+        <v>12.03</v>
       </c>
       <c r="K103">
-        <v>17.59</v>
+        <v>12.18</v>
       </c>
       <c r="L103">
-        <v>17.41</v>
+        <v>12.36</v>
       </c>
       <c r="M103">
-        <v>16.940000000000001</v>
+        <v>12.67</v>
       </c>
       <c r="N103">
-        <v>16.63</v>
+        <v>12.96</v>
       </c>
       <c r="O103">
-        <v>16.329999999999998</v>
+        <v>13.38</v>
       </c>
     </row>
     <row r="104" spans="1:15">
@@ -5554,46 +5554,46 @@
         <v>24</v>
       </c>
       <c r="B104" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C104">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="D104">
-        <v>16.3379515822614</v>
+        <v>13.85</v>
       </c>
       <c r="E104">
-        <v>16.760000000000002</v>
+        <v>14.04</v>
       </c>
       <c r="F104">
-        <v>16.78</v>
+        <v>14.24</v>
       </c>
       <c r="G104">
-        <v>16.7</v>
+        <v>14.48</v>
       </c>
       <c r="H104">
-        <v>16.510000000000002</v>
+        <v>14.49</v>
       </c>
       <c r="I104">
-        <v>16.579999999999998</v>
+        <v>14.38</v>
       </c>
       <c r="J104">
-        <v>16.47</v>
+        <v>14.43</v>
       </c>
       <c r="K104">
-        <v>17</v>
+        <v>14.43</v>
       </c>
       <c r="L104">
-        <v>20.79</v>
+        <v>14.83</v>
       </c>
       <c r="M104">
-        <v>26.53</v>
+        <v>15.35</v>
       </c>
       <c r="N104">
-        <v>27.24</v>
+        <v>16.04</v>
       </c>
       <c r="O104">
-        <v>27.77</v>
+        <v>16.97</v>
       </c>
     </row>
     <row r="105" spans="1:15">
@@ -5601,46 +5601,46 @@
         <v>24</v>
       </c>
       <c r="B105" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C105">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D105">
-        <v>28.36</v>
+        <v>17.93</v>
       </c>
       <c r="E105">
-        <v>28.5</v>
+        <v>18.579999999999998</v>
       </c>
       <c r="F105">
-        <v>30.02</v>
+        <v>19.04</v>
       </c>
       <c r="G105">
-        <v>35.42</v>
+        <v>19.260000000000002</v>
       </c>
       <c r="H105">
-        <v>36.74</v>
+        <v>19.350000000000001</v>
       </c>
       <c r="I105">
-        <v>36.96</v>
+        <v>19.29</v>
       </c>
       <c r="J105">
-        <v>37.18</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="K105">
-        <v>36.92</v>
+        <v>19.61</v>
       </c>
       <c r="L105">
-        <v>36.86</v>
+        <v>19.95</v>
       </c>
       <c r="M105">
-        <v>36.99</v>
+        <v>20.7</v>
       </c>
       <c r="N105">
-        <v>37.28</v>
+        <v>21.27</v>
       </c>
       <c r="O105">
-        <v>37.43</v>
+        <v>21.77</v>
       </c>
     </row>
     <row r="106" spans="1:15">
@@ -5648,46 +5648,46 @@
         <v>24</v>
       </c>
       <c r="B106" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C106">
-        <v>2013</v>
+        <v>2018</v>
       </c>
       <c r="D106">
-        <v>6.13</v>
+        <v>22.01</v>
       </c>
       <c r="E106">
-        <v>5.94</v>
+        <v>21.95</v>
       </c>
       <c r="F106">
-        <v>5.78</v>
+        <v>22.13</v>
       </c>
       <c r="G106">
-        <v>5.76</v>
+        <v>22.03</v>
       </c>
       <c r="H106">
-        <v>5.97</v>
+        <v>22.13</v>
       </c>
       <c r="I106">
-        <v>6.43</v>
+        <v>22.02</v>
       </c>
       <c r="J106">
-        <v>6.88</v>
+        <v>21.9</v>
       </c>
       <c r="K106">
-        <v>6.91</v>
+        <v>21.99</v>
       </c>
       <c r="L106">
-        <v>6.78</v>
+        <v>22.36</v>
       </c>
       <c r="M106">
-        <v>6.82</v>
+        <v>22.85</v>
       </c>
       <c r="N106">
-        <v>7.2</v>
+        <v>23.39</v>
       </c>
       <c r="O106">
-        <v>7.81</v>
+        <v>23.73</v>
       </c>
     </row>
     <row r="107" spans="1:15">
@@ -5695,46 +5695,46 @@
         <v>24</v>
       </c>
       <c r="B107" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C107">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="D107">
-        <v>8.82</v>
+        <v>23.866237333323902</v>
       </c>
       <c r="E107">
-        <v>9.11</v>
+        <v>24.13</v>
       </c>
       <c r="F107">
-        <v>10.039999999999999</v>
+        <v>24.18</v>
       </c>
       <c r="G107">
-        <v>10.72</v>
+        <v>24.32</v>
       </c>
       <c r="H107">
-        <v>11.54</v>
+        <v>24.25</v>
       </c>
       <c r="I107">
-        <v>11.77</v>
+        <v>24.15</v>
       </c>
       <c r="J107">
-        <v>11.78</v>
+        <v>24.23</v>
       </c>
       <c r="K107">
-        <v>11.98</v>
+        <v>24.43</v>
       </c>
       <c r="L107">
-        <v>12.14</v>
+        <v>24.73</v>
       </c>
       <c r="M107">
-        <v>11.65</v>
+        <v>25.14</v>
       </c>
       <c r="N107">
-        <v>10.98</v>
+        <v>25.22</v>
       </c>
       <c r="O107">
-        <v>10.68</v>
+        <v>25.31</v>
       </c>
     </row>
     <row r="108" spans="1:15">
@@ -5742,140 +5742,140 @@
         <v>24</v>
       </c>
       <c r="B108" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C108">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="D108">
-        <v>10.87</v>
+        <v>24.91</v>
       </c>
       <c r="E108">
-        <v>11.9</v>
+        <v>24.99</v>
       </c>
       <c r="F108">
-        <v>16.61</v>
+        <v>25</v>
       </c>
       <c r="G108">
-        <v>15.44</v>
+        <v>25.01</v>
       </c>
       <c r="H108">
-        <v>14.41</v>
+        <v>25.09</v>
       </c>
       <c r="I108">
-        <v>14.09</v>
+        <v>24.95</v>
       </c>
       <c r="J108">
-        <v>14.36</v>
+        <v>24.91</v>
       </c>
       <c r="K108">
-        <v>14.53</v>
+        <v>24.83</v>
       </c>
       <c r="L108">
-        <v>14.73</v>
+        <v>25</v>
       </c>
       <c r="M108">
-        <v>15.95</v>
+        <v>25.19</v>
       </c>
       <c r="N108">
-        <v>17.7</v>
+        <v>25.39</v>
       </c>
       <c r="O108">
-        <v>18.149999999999999</v>
+        <v>25.6</v>
       </c>
     </row>
     <row r="109" spans="1:15">
-      <c r="A109" t="s">
+      <c r="A109" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B109" t="s">
-        <v>21</v>
-      </c>
-      <c r="C109">
-        <v>2016</v>
+      <c r="B109" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C109" s="3">
+        <v>2021</v>
       </c>
       <c r="D109">
-        <v>18.350000000000001</v>
+        <v>25.41</v>
       </c>
       <c r="E109">
-        <v>18.37</v>
+        <v>25.83</v>
       </c>
       <c r="F109">
-        <v>18.28</v>
+        <v>25.96</v>
       </c>
       <c r="G109">
-        <v>17.8</v>
+        <v>25.99</v>
       </c>
       <c r="H109">
-        <v>17.59</v>
+        <v>26.44</v>
       </c>
       <c r="I109">
-        <v>17.25</v>
+        <v>26.42</v>
       </c>
       <c r="J109">
-        <v>17.2</v>
+        <v>26.5</v>
       </c>
       <c r="K109">
-        <v>17.149999999999999</v>
+        <v>26.62</v>
       </c>
       <c r="L109">
-        <v>17.079999999999998</v>
+        <v>27.2</v>
       </c>
       <c r="M109">
-        <v>17.32</v>
+        <v>27.63</v>
       </c>
       <c r="N109">
-        <v>17.78</v>
+        <v>27.96</v>
       </c>
       <c r="O109">
-        <v>18.059999999999999</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15">
+        <v>28.55</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" ht="13.8" customHeight="1">
       <c r="A110" t="s">
         <v>24</v>
       </c>
       <c r="B110" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C110">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="D110">
-        <v>17.09</v>
+        <v>9.0500000000000007</v>
       </c>
       <c r="E110">
-        <v>17.61</v>
+        <v>8.93</v>
       </c>
       <c r="F110">
-        <v>18.27</v>
+        <v>8.74</v>
       </c>
       <c r="G110">
-        <v>18.48</v>
+        <v>8.44</v>
       </c>
       <c r="H110">
-        <v>18.54</v>
+        <v>8.2899999999999991</v>
       </c>
       <c r="I110">
-        <v>18.579999999999998</v>
+        <v>8.08</v>
       </c>
       <c r="J110">
-        <v>18.45</v>
+        <v>7.94</v>
       </c>
       <c r="K110">
-        <v>18.5</v>
+        <v>7.91</v>
       </c>
       <c r="L110">
-        <v>18.43</v>
+        <v>7.7</v>
       </c>
       <c r="M110">
-        <v>17.43</v>
+        <v>7.61</v>
       </c>
       <c r="N110">
-        <v>16.399999999999999</v>
+        <v>7.75</v>
       </c>
       <c r="O110">
-        <v>15.78</v>
+        <v>7.65</v>
       </c>
     </row>
     <row r="111" spans="1:15">
@@ -5883,46 +5883,46 @@
         <v>24</v>
       </c>
       <c r="B111" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C111">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="D111">
-        <v>15.62</v>
+        <v>8.2100000000000009</v>
       </c>
       <c r="E111">
-        <v>15.47</v>
+        <v>8.2799999999999994</v>
       </c>
       <c r="F111">
-        <v>15.31</v>
+        <v>9</v>
       </c>
       <c r="G111">
-        <v>15.15</v>
+        <v>9.65</v>
       </c>
       <c r="H111">
-        <v>14.83</v>
+        <v>10.09</v>
       </c>
       <c r="I111">
-        <v>14.67</v>
+        <v>10.24</v>
       </c>
       <c r="J111">
-        <v>14.92</v>
+        <v>10.31</v>
       </c>
       <c r="K111">
-        <v>14.9</v>
+        <v>10.44</v>
       </c>
       <c r="L111">
-        <v>14.83</v>
+        <v>10.49</v>
       </c>
       <c r="M111">
-        <v>14.49</v>
+        <v>10.58</v>
       </c>
       <c r="N111">
-        <v>14.24</v>
+        <v>11.44</v>
       </c>
       <c r="O111">
-        <v>14.09</v>
+        <v>18.07</v>
       </c>
     </row>
     <row r="112" spans="1:15">
@@ -5930,46 +5930,46 @@
         <v>24</v>
       </c>
       <c r="B112" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C112">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="D112">
-        <v>14.02</v>
+        <v>20.66</v>
       </c>
       <c r="E112">
-        <v>14.13</v>
+        <v>20.87</v>
       </c>
       <c r="F112">
-        <v>14.16</v>
+        <v>24.19</v>
       </c>
       <c r="G112">
-        <v>14.08</v>
+        <v>25.18</v>
       </c>
       <c r="H112">
-        <v>14.25</v>
+        <v>24.37</v>
       </c>
       <c r="I112">
-        <v>15.17</v>
+        <v>23.9</v>
       </c>
       <c r="J112">
-        <v>15.6</v>
+        <v>24.23</v>
       </c>
       <c r="K112">
-        <v>15.3</v>
+        <v>24.81</v>
       </c>
       <c r="L112">
-        <v>15.21</v>
+        <v>24.86</v>
       </c>
       <c r="M112">
-        <v>14.85</v>
+        <v>26.11</v>
       </c>
       <c r="N112">
-        <v>14.49</v>
+        <v>28.21</v>
       </c>
       <c r="O112">
-        <v>14.3</v>
+        <v>29.7</v>
       </c>
     </row>
     <row r="113" spans="1:15">
@@ -5977,46 +5977,46 @@
         <v>24</v>
       </c>
       <c r="B113" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C113">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="D113">
-        <v>14.02</v>
+        <v>29.98</v>
       </c>
       <c r="E113">
-        <v>14.14</v>
+        <v>31.37</v>
       </c>
       <c r="F113">
-        <v>14.55</v>
+        <v>33.61</v>
       </c>
       <c r="G113">
-        <v>15.25</v>
+        <v>36.75</v>
       </c>
       <c r="H113">
-        <v>15.14</v>
+        <v>38.39</v>
       </c>
       <c r="I113">
-        <v>14.94</v>
+        <v>41.16</v>
       </c>
       <c r="J113">
-        <v>14.79</v>
+        <v>42.35</v>
       </c>
       <c r="K113">
-        <v>14.71</v>
+        <v>40.01</v>
       </c>
       <c r="L113">
-        <v>14.94</v>
+        <v>36.06</v>
       </c>
       <c r="M113">
-        <v>18.3</v>
+        <v>34.24</v>
       </c>
       <c r="N113">
-        <v>19.7</v>
+        <v>34.369999999999997</v>
       </c>
       <c r="O113">
-        <v>20.9</v>
+        <v>34.65</v>
       </c>
     </row>
     <row r="114" spans="1:15">
@@ -6024,46 +6024,46 @@
         <v>24</v>
       </c>
       <c r="B114" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C114">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="D114">
-        <v>15.74</v>
+        <v>32.479999999999997</v>
       </c>
       <c r="E114">
-        <v>15.75</v>
+        <v>32.96</v>
       </c>
       <c r="F114">
-        <v>15.78</v>
+        <v>32.93</v>
       </c>
       <c r="G114">
-        <v>15.75</v>
+        <v>32.270000000000003</v>
       </c>
       <c r="H114">
-        <v>15.71</v>
+        <v>31.02</v>
       </c>
       <c r="I114">
-        <v>15.69</v>
+        <v>29.78</v>
       </c>
       <c r="J114">
-        <v>15.7</v>
+        <v>28.51</v>
       </c>
       <c r="K114">
-        <v>15.68</v>
+        <v>28.08</v>
       </c>
       <c r="L114">
-        <v>15.4</v>
+        <v>27.36</v>
       </c>
       <c r="M114">
-        <v>15</v>
+        <v>25.57</v>
       </c>
       <c r="N114">
-        <v>14.66</v>
+        <v>23.85</v>
       </c>
       <c r="O114">
-        <v>14.52</v>
+        <v>22.54</v>
       </c>
     </row>
     <row r="115" spans="1:15">
@@ -6071,46 +6071,46 @@
         <v>24</v>
       </c>
       <c r="B115" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C115">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="D115">
-        <v>14.21</v>
+        <v>21.53</v>
       </c>
       <c r="E115">
-        <v>14.1</v>
+        <v>20.84</v>
       </c>
       <c r="F115">
-        <v>14.03</v>
+        <v>20.010000000000002</v>
       </c>
       <c r="G115">
-        <v>14.3</v>
+        <v>18.78</v>
       </c>
       <c r="H115">
-        <v>14.74</v>
+        <v>17.38</v>
       </c>
       <c r="I115">
-        <v>15.27</v>
+        <v>17.18</v>
       </c>
       <c r="J115">
-        <v>15.62</v>
+        <v>17.760000000000002</v>
       </c>
       <c r="K115">
-        <v>16.02</v>
+        <v>17.59</v>
       </c>
       <c r="L115">
-        <v>16.38</v>
+        <v>17.41</v>
       </c>
       <c r="M115">
-        <v>16.690000000000001</v>
+        <v>16.940000000000001</v>
       </c>
       <c r="N115">
-        <v>17.100000000000001</v>
+        <v>16.63</v>
       </c>
       <c r="O115">
-        <v>18.34</v>
+        <v>16.329999999999998</v>
       </c>
     </row>
     <row r="116" spans="1:15">
@@ -6118,46 +6118,46 @@
         <v>24</v>
       </c>
       <c r="B116" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C116">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="D116">
-        <v>19.579999999999998</v>
+        <v>16.3379515822614</v>
       </c>
       <c r="E116">
-        <v>21.67</v>
+        <v>16.760000000000002</v>
       </c>
       <c r="F116">
-        <v>28.82</v>
+        <v>16.78</v>
       </c>
       <c r="G116">
-        <v>30.4</v>
+        <v>16.7</v>
       </c>
       <c r="H116">
-        <v>30.8</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="I116">
-        <v>30.79</v>
+        <v>16.579999999999998</v>
       </c>
       <c r="J116">
-        <v>30.67</v>
+        <v>16.47</v>
       </c>
       <c r="K116">
-        <v>30.69</v>
+        <v>17</v>
       </c>
       <c r="L116">
-        <v>30.41</v>
+        <v>20.79</v>
       </c>
       <c r="M116">
-        <v>29.74</v>
+        <v>26.53</v>
       </c>
       <c r="N116">
-        <v>29.82</v>
+        <v>27.24</v>
       </c>
       <c r="O116">
-        <v>30.27</v>
+        <v>27.77</v>
       </c>
     </row>
     <row r="117" spans="1:15">
@@ -6165,93 +6165,93 @@
         <v>24</v>
       </c>
       <c r="B117" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C117">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="D117">
-        <v>30.73</v>
+        <v>28.36</v>
       </c>
       <c r="E117">
-        <v>30.81</v>
+        <v>28.5</v>
       </c>
       <c r="F117">
-        <v>31.21</v>
+        <v>30.02</v>
       </c>
       <c r="G117">
-        <v>31.61</v>
+        <v>35.42</v>
       </c>
       <c r="H117">
-        <v>31.89</v>
+        <v>36.74</v>
       </c>
       <c r="I117">
-        <v>32.159999999999997</v>
+        <v>36.96</v>
       </c>
       <c r="J117">
-        <v>32.380000000000003</v>
+        <v>37.18</v>
       </c>
       <c r="K117">
-        <v>32.4</v>
+        <v>36.92</v>
       </c>
       <c r="L117">
-        <v>32.58</v>
+        <v>36.86</v>
       </c>
       <c r="M117">
-        <v>32.729999999999997</v>
+        <v>36.99</v>
       </c>
       <c r="N117">
-        <v>32.92</v>
+        <v>37.28</v>
       </c>
       <c r="O117">
-        <v>32.979999999999997</v>
+        <v>37.43</v>
       </c>
     </row>
     <row r="118" spans="1:15">
-      <c r="A118" t="s">
+      <c r="A118" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B118" t="s">
-        <v>22</v>
-      </c>
-      <c r="C118">
-        <v>2017</v>
+      <c r="B118" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C118" s="3">
+        <v>2021</v>
       </c>
       <c r="D118">
-        <v>32.97</v>
+        <v>37.56</v>
       </c>
       <c r="E118">
-        <v>33.299999999999997</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="F118">
-        <v>33.44</v>
+        <v>40.01</v>
       </c>
       <c r="G118">
-        <v>33.74</v>
+        <v>41.02</v>
       </c>
       <c r="H118">
-        <v>33.74</v>
+        <v>41.44</v>
       </c>
       <c r="I118">
-        <v>33.75</v>
+        <v>42.01</v>
       </c>
       <c r="J118">
-        <v>33.64</v>
+        <v>42.07</v>
       </c>
       <c r="K118">
-        <v>33.67</v>
+        <v>42.2</v>
       </c>
       <c r="L118">
-        <v>33.69</v>
+        <v>42.54</v>
       </c>
       <c r="M118">
-        <v>33.64</v>
+        <v>43.44</v>
       </c>
       <c r="N118">
-        <v>33.97</v>
+        <v>46.33</v>
       </c>
       <c r="O118">
-        <v>34.18</v>
+        <v>47.77</v>
       </c>
     </row>
     <row r="119" spans="1:15">
@@ -6259,46 +6259,46 @@
         <v>24</v>
       </c>
       <c r="B119" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C119">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="D119">
-        <v>34.18</v>
+        <v>6.13</v>
       </c>
       <c r="E119">
-        <v>34.43</v>
+        <v>5.94</v>
       </c>
       <c r="F119">
-        <v>34.479999999999997</v>
+        <v>5.78</v>
       </c>
       <c r="G119">
-        <v>34.58</v>
+        <v>5.76</v>
       </c>
       <c r="H119">
-        <v>34.39</v>
+        <v>5.97</v>
       </c>
       <c r="I119">
-        <v>34.44</v>
+        <v>6.43</v>
       </c>
       <c r="J119">
-        <v>34.409999999999997</v>
+        <v>6.88</v>
       </c>
       <c r="K119">
-        <v>34.479999999999997</v>
+        <v>6.91</v>
       </c>
       <c r="L119">
-        <v>34.590000000000003</v>
+        <v>6.78</v>
       </c>
       <c r="M119">
-        <v>34.83</v>
+        <v>6.82</v>
       </c>
       <c r="N119">
-        <v>34.979999999999997</v>
+        <v>7.2</v>
       </c>
       <c r="O119">
-        <v>35</v>
+        <v>7.81</v>
       </c>
     </row>
     <row r="120" spans="1:15">
@@ -6306,46 +6306,46 @@
         <v>24</v>
       </c>
       <c r="B120" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C120">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="D120">
-        <v>35.116551608304697</v>
+        <v>8.82</v>
       </c>
       <c r="E120">
-        <v>35.07</v>
+        <v>9.11</v>
       </c>
       <c r="F120">
-        <v>34.979999999999997</v>
+        <v>10.039999999999999</v>
       </c>
       <c r="G120">
-        <v>34.950000000000003</v>
+        <v>10.72</v>
       </c>
       <c r="H120">
-        <v>34.93</v>
+        <v>11.54</v>
       </c>
       <c r="I120">
-        <v>34.99</v>
+        <v>11.77</v>
       </c>
       <c r="J120">
-        <v>34.9</v>
+        <v>11.78</v>
       </c>
       <c r="K120">
-        <v>34.96</v>
+        <v>11.98</v>
       </c>
       <c r="L120">
-        <v>34.97</v>
+        <v>12.14</v>
       </c>
       <c r="M120">
-        <v>34.840000000000003</v>
+        <v>11.65</v>
       </c>
       <c r="N120">
-        <v>34.72</v>
+        <v>10.98</v>
       </c>
       <c r="O120">
-        <v>34.44</v>
+        <v>10.68</v>
       </c>
     </row>
     <row r="121" spans="1:15">
@@ -6353,46 +6353,46 @@
         <v>24</v>
       </c>
       <c r="B121" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C121">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="D121">
-        <v>34.35</v>
+        <v>10.87</v>
       </c>
       <c r="E121">
-        <v>34.31</v>
+        <v>11.9</v>
       </c>
       <c r="F121">
-        <v>34.29</v>
+        <v>16.61</v>
       </c>
       <c r="G121">
-        <v>34.4</v>
+        <v>15.44</v>
       </c>
       <c r="H121">
-        <v>34.14</v>
+        <v>14.41</v>
       </c>
       <c r="I121">
-        <v>34.31</v>
+        <v>14.09</v>
       </c>
       <c r="J121">
-        <v>34.31</v>
+        <v>14.36</v>
       </c>
       <c r="K121">
-        <v>34.619999999999997</v>
+        <v>14.53</v>
       </c>
       <c r="L121">
-        <v>35.1</v>
+        <v>14.73</v>
       </c>
       <c r="M121">
-        <v>37.53</v>
+        <v>15.95</v>
       </c>
       <c r="N121">
-        <v>40.11</v>
+        <v>17.7</v>
       </c>
       <c r="O121">
-        <v>42.07</v>
+        <v>18.149999999999999</v>
       </c>
     </row>
     <row r="122" spans="1:15">
@@ -6400,46 +6400,46 @@
         <v>24</v>
       </c>
       <c r="B122" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C122">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D122">
-        <v>4.58</v>
+        <v>18.350000000000001</v>
       </c>
       <c r="E122">
-        <v>4.7</v>
+        <v>18.37</v>
       </c>
       <c r="F122">
-        <v>4.7699999999999996</v>
+        <v>18.28</v>
       </c>
       <c r="G122">
-        <v>4.7300000000000004</v>
+        <v>17.8</v>
       </c>
       <c r="H122">
-        <v>4.7699999999999996</v>
+        <v>17.59</v>
       </c>
       <c r="I122">
-        <v>4.76</v>
+        <v>17.25</v>
       </c>
       <c r="J122">
-        <v>4.7699999999999996</v>
+        <v>17.2</v>
       </c>
       <c r="K122">
-        <v>4.68</v>
+        <v>17.149999999999999</v>
       </c>
       <c r="L122">
-        <v>4.53</v>
+        <v>17.079999999999998</v>
       </c>
       <c r="M122">
-        <v>4.37</v>
+        <v>17.32</v>
       </c>
       <c r="N122">
-        <v>4.33</v>
+        <v>17.78</v>
       </c>
       <c r="O122">
-        <v>4.34</v>
+        <v>18.059999999999999</v>
       </c>
     </row>
     <row r="123" spans="1:15">
@@ -6447,46 +6447,46 @@
         <v>24</v>
       </c>
       <c r="B123" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C123">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="D123">
-        <v>4.5599999999999996</v>
+        <v>17.09</v>
       </c>
       <c r="E123">
-        <v>4.5999999999999996</v>
+        <v>17.61</v>
       </c>
       <c r="F123">
-        <v>4.74</v>
+        <v>18.27</v>
       </c>
       <c r="G123">
-        <v>4.9400000000000004</v>
+        <v>18.48</v>
       </c>
       <c r="H123">
-        <v>5.35</v>
+        <v>18.54</v>
       </c>
       <c r="I123">
-        <v>5.63</v>
+        <v>18.579999999999998</v>
       </c>
       <c r="J123">
-        <v>5.76</v>
+        <v>18.45</v>
       </c>
       <c r="K123">
-        <v>5.85</v>
+        <v>18.5</v>
       </c>
       <c r="L123">
-        <v>5.92</v>
+        <v>18.43</v>
       </c>
       <c r="M123">
-        <v>5.94</v>
+        <v>17.43</v>
       </c>
       <c r="N123">
-        <v>6.02</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="O123">
-        <v>6.16</v>
+        <v>15.78</v>
       </c>
     </row>
     <row r="124" spans="1:15">
@@ -6494,46 +6494,46 @@
         <v>24</v>
       </c>
       <c r="B124" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C124">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="D124">
-        <v>6.5</v>
+        <v>15.62</v>
       </c>
       <c r="E124">
-        <v>7.41</v>
+        <v>15.47</v>
       </c>
       <c r="F124">
-        <v>11.33</v>
+        <v>15.31</v>
       </c>
       <c r="G124">
-        <v>11.33</v>
+        <v>15.15</v>
       </c>
       <c r="H124">
-        <v>10.71</v>
+        <v>14.83</v>
       </c>
       <c r="I124">
-        <v>10</v>
+        <v>14.67</v>
       </c>
       <c r="J124">
-        <v>9.66</v>
+        <v>14.92</v>
       </c>
       <c r="K124">
-        <v>9.3699999999999992</v>
+        <v>14.9</v>
       </c>
       <c r="L124">
-        <v>9.1199999999999992</v>
+        <v>14.83</v>
       </c>
       <c r="M124">
-        <v>8.8800000000000008</v>
+        <v>14.49</v>
       </c>
       <c r="N124">
-        <v>8.89</v>
+        <v>14.24</v>
       </c>
       <c r="O124">
-        <v>9.14</v>
+        <v>14.09</v>
       </c>
     </row>
     <row r="125" spans="1:15">
@@ -6541,46 +6541,46 @@
         <v>24</v>
       </c>
       <c r="B125" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C125">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D125">
-        <v>9.18</v>
+        <v>14.02</v>
       </c>
       <c r="E125">
-        <v>9.1999999999999993</v>
+        <v>14.13</v>
       </c>
       <c r="F125">
-        <v>9.14</v>
+        <v>14.16</v>
       </c>
       <c r="G125">
-        <v>9.16</v>
+        <v>14.08</v>
       </c>
       <c r="H125">
-        <v>9.1300000000000008</v>
+        <v>14.25</v>
       </c>
       <c r="I125">
-        <v>9.1199999999999992</v>
+        <v>15.17</v>
       </c>
       <c r="J125">
-        <v>9.1199999999999992</v>
+        <v>15.6</v>
       </c>
       <c r="K125">
-        <v>9.08</v>
+        <v>15.3</v>
       </c>
       <c r="L125">
-        <v>9.01</v>
+        <v>15.21</v>
       </c>
       <c r="M125">
-        <v>9.06</v>
+        <v>14.85</v>
       </c>
       <c r="N125">
-        <v>9.15</v>
+        <v>14.49</v>
       </c>
       <c r="O125">
-        <v>9.2200000000000006</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="126" spans="1:15">
@@ -6588,93 +6588,93 @@
         <v>24</v>
       </c>
       <c r="B126" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C126">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D126">
-        <v>8.5299999999999994</v>
+        <v>14.02</v>
       </c>
       <c r="E126">
-        <v>8.68</v>
+        <v>14.14</v>
       </c>
       <c r="F126">
-        <v>8.94</v>
+        <v>14.55</v>
       </c>
       <c r="G126">
-        <v>9.08</v>
+        <v>15.25</v>
       </c>
       <c r="H126">
-        <v>9.15</v>
+        <v>15.14</v>
       </c>
       <c r="I126">
-        <v>9.16</v>
+        <v>14.94</v>
       </c>
       <c r="J126">
-        <v>9.17</v>
+        <v>14.79</v>
       </c>
       <c r="K126">
-        <v>9.1199999999999992</v>
+        <v>14.71</v>
       </c>
       <c r="L126">
-        <v>9.19</v>
+        <v>14.94</v>
       </c>
       <c r="M126">
-        <v>9.2100000000000009</v>
+        <v>18.3</v>
       </c>
       <c r="N126">
-        <v>9.32</v>
+        <v>19.7</v>
       </c>
       <c r="O126">
-        <v>9.44</v>
+        <v>20.9</v>
       </c>
     </row>
     <row r="127" spans="1:15">
-      <c r="A127" t="s">
+      <c r="A127" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B127" t="s">
-        <v>23</v>
-      </c>
-      <c r="C127">
-        <v>2018</v>
+      <c r="B127" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C127" s="3">
+        <v>2021</v>
       </c>
       <c r="D127">
-        <v>9.5500000000000007</v>
+        <v>21.89</v>
       </c>
       <c r="E127">
-        <v>9.65</v>
+        <v>23.13</v>
       </c>
       <c r="F127">
-        <v>9.74</v>
+        <v>24.38</v>
       </c>
       <c r="G127">
-        <v>9.7899999999999991</v>
+        <v>25.63</v>
       </c>
       <c r="H127">
-        <v>9.8800000000000008</v>
+        <v>25.75</v>
       </c>
       <c r="I127">
-        <v>9.99</v>
+        <v>25.92</v>
       </c>
       <c r="J127">
-        <v>10.039999999999999</v>
+        <v>27.63</v>
       </c>
       <c r="K127">
-        <v>10.23</v>
+        <v>28.7</v>
       </c>
       <c r="L127">
-        <v>10.74</v>
+        <v>28.69</v>
       </c>
       <c r="M127">
-        <v>11.1</v>
+        <v>27.8</v>
       </c>
       <c r="N127">
-        <v>11.24</v>
+        <v>28.2</v>
       </c>
       <c r="O127">
-        <v>11.34</v>
+        <v>27.52</v>
       </c>
     </row>
     <row r="128" spans="1:15">
@@ -6682,46 +6682,46 @@
         <v>24</v>
       </c>
       <c r="B128" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C128">
-        <v>2019</v>
+        <v>2013</v>
       </c>
       <c r="D128">
-        <v>11.3621357047475</v>
+        <v>15.74</v>
       </c>
       <c r="E128">
-        <v>11.5</v>
+        <v>15.75</v>
       </c>
       <c r="F128">
-        <v>11.64</v>
+        <v>15.78</v>
       </c>
       <c r="G128">
-        <v>11.71</v>
+        <v>15.75</v>
       </c>
       <c r="H128">
-        <v>11.82</v>
+        <v>15.71</v>
       </c>
       <c r="I128">
-        <v>11.83</v>
+        <v>15.69</v>
       </c>
       <c r="J128">
-        <v>11.84</v>
+        <v>15.7</v>
       </c>
       <c r="K128">
-        <v>11.74</v>
+        <v>15.68</v>
       </c>
       <c r="L128">
-        <v>11.65</v>
+        <v>15.4</v>
       </c>
       <c r="M128">
-        <v>11.47</v>
+        <v>15</v>
       </c>
       <c r="N128">
-        <v>11.28</v>
+        <v>14.66</v>
       </c>
       <c r="O128">
-        <v>11.22</v>
+        <v>14.52</v>
       </c>
     </row>
     <row r="129" spans="1:15">
@@ -6729,71 +6729,820 @@
         <v>24</v>
       </c>
       <c r="B129" t="s">
+        <v>22</v>
+      </c>
+      <c r="C129">
+        <v>2014</v>
+      </c>
+      <c r="D129">
+        <v>14.21</v>
+      </c>
+      <c r="E129">
+        <v>14.1</v>
+      </c>
+      <c r="F129">
+        <v>14.03</v>
+      </c>
+      <c r="G129">
+        <v>14.3</v>
+      </c>
+      <c r="H129">
+        <v>14.74</v>
+      </c>
+      <c r="I129">
+        <v>15.27</v>
+      </c>
+      <c r="J129">
+        <v>15.62</v>
+      </c>
+      <c r="K129">
+        <v>16.02</v>
+      </c>
+      <c r="L129">
+        <v>16.38</v>
+      </c>
+      <c r="M129">
+        <v>16.690000000000001</v>
+      </c>
+      <c r="N129">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="O129">
+        <v>18.34</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15">
+      <c r="A130" t="s">
+        <v>24</v>
+      </c>
+      <c r="B130" t="s">
+        <v>22</v>
+      </c>
+      <c r="C130">
+        <v>2015</v>
+      </c>
+      <c r="D130">
+        <v>19.579999999999998</v>
+      </c>
+      <c r="E130">
+        <v>21.67</v>
+      </c>
+      <c r="F130">
+        <v>28.82</v>
+      </c>
+      <c r="G130">
+        <v>30.4</v>
+      </c>
+      <c r="H130">
+        <v>30.8</v>
+      </c>
+      <c r="I130">
+        <v>30.79</v>
+      </c>
+      <c r="J130">
+        <v>30.67</v>
+      </c>
+      <c r="K130">
+        <v>30.69</v>
+      </c>
+      <c r="L130">
+        <v>30.41</v>
+      </c>
+      <c r="M130">
+        <v>29.74</v>
+      </c>
+      <c r="N130">
+        <v>29.82</v>
+      </c>
+      <c r="O130">
+        <v>30.27</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15">
+      <c r="A131" t="s">
+        <v>24</v>
+      </c>
+      <c r="B131" t="s">
+        <v>22</v>
+      </c>
+      <c r="C131">
+        <v>2016</v>
+      </c>
+      <c r="D131">
+        <v>30.73</v>
+      </c>
+      <c r="E131">
+        <v>30.81</v>
+      </c>
+      <c r="F131">
+        <v>31.21</v>
+      </c>
+      <c r="G131">
+        <v>31.61</v>
+      </c>
+      <c r="H131">
+        <v>31.89</v>
+      </c>
+      <c r="I131">
+        <v>32.159999999999997</v>
+      </c>
+      <c r="J131">
+        <v>32.380000000000003</v>
+      </c>
+      <c r="K131">
+        <v>32.4</v>
+      </c>
+      <c r="L131">
+        <v>32.58</v>
+      </c>
+      <c r="M131">
+        <v>32.729999999999997</v>
+      </c>
+      <c r="N131">
+        <v>32.92</v>
+      </c>
+      <c r="O131">
+        <v>32.979999999999997</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15">
+      <c r="A132" t="s">
+        <v>24</v>
+      </c>
+      <c r="B132" t="s">
+        <v>22</v>
+      </c>
+      <c r="C132">
+        <v>2017</v>
+      </c>
+      <c r="D132">
+        <v>32.97</v>
+      </c>
+      <c r="E132">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="F132">
+        <v>33.44</v>
+      </c>
+      <c r="G132">
+        <v>33.74</v>
+      </c>
+      <c r="H132">
+        <v>33.74</v>
+      </c>
+      <c r="I132">
+        <v>33.75</v>
+      </c>
+      <c r="J132">
+        <v>33.64</v>
+      </c>
+      <c r="K132">
+        <v>33.67</v>
+      </c>
+      <c r="L132">
+        <v>33.69</v>
+      </c>
+      <c r="M132">
+        <v>33.64</v>
+      </c>
+      <c r="N132">
+        <v>33.97</v>
+      </c>
+      <c r="O132">
+        <v>34.18</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15">
+      <c r="A133" t="s">
+        <v>24</v>
+      </c>
+      <c r="B133" t="s">
+        <v>22</v>
+      </c>
+      <c r="C133">
+        <v>2018</v>
+      </c>
+      <c r="D133">
+        <v>34.18</v>
+      </c>
+      <c r="E133">
+        <v>34.43</v>
+      </c>
+      <c r="F133">
+        <v>34.479999999999997</v>
+      </c>
+      <c r="G133">
+        <v>34.58</v>
+      </c>
+      <c r="H133">
+        <v>34.39</v>
+      </c>
+      <c r="I133">
+        <v>34.44</v>
+      </c>
+      <c r="J133">
+        <v>34.409999999999997</v>
+      </c>
+      <c r="K133">
+        <v>34.479999999999997</v>
+      </c>
+      <c r="L133">
+        <v>34.590000000000003</v>
+      </c>
+      <c r="M133">
+        <v>34.83</v>
+      </c>
+      <c r="N133">
+        <v>34.979999999999997</v>
+      </c>
+      <c r="O133">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15">
+      <c r="A134" t="s">
+        <v>24</v>
+      </c>
+      <c r="B134" t="s">
+        <v>22</v>
+      </c>
+      <c r="C134">
+        <v>2019</v>
+      </c>
+      <c r="D134">
+        <v>35.116551608304697</v>
+      </c>
+      <c r="E134">
+        <v>35.07</v>
+      </c>
+      <c r="F134">
+        <v>34.979999999999997</v>
+      </c>
+      <c r="G134">
+        <v>34.950000000000003</v>
+      </c>
+      <c r="H134">
+        <v>34.93</v>
+      </c>
+      <c r="I134">
+        <v>34.99</v>
+      </c>
+      <c r="J134">
+        <v>34.9</v>
+      </c>
+      <c r="K134">
+        <v>34.96</v>
+      </c>
+      <c r="L134">
+        <v>34.97</v>
+      </c>
+      <c r="M134">
+        <v>34.840000000000003</v>
+      </c>
+      <c r="N134">
+        <v>34.72</v>
+      </c>
+      <c r="O134">
+        <v>34.44</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15">
+      <c r="A135" t="s">
+        <v>24</v>
+      </c>
+      <c r="B135" t="s">
+        <v>22</v>
+      </c>
+      <c r="C135">
+        <v>2020</v>
+      </c>
+      <c r="D135">
+        <v>34.35</v>
+      </c>
+      <c r="E135">
+        <v>34.31</v>
+      </c>
+      <c r="F135">
+        <v>34.29</v>
+      </c>
+      <c r="G135">
+        <v>34.4</v>
+      </c>
+      <c r="H135">
+        <v>34.14</v>
+      </c>
+      <c r="I135">
+        <v>34.31</v>
+      </c>
+      <c r="J135">
+        <v>34.31</v>
+      </c>
+      <c r="K135">
+        <v>34.619999999999997</v>
+      </c>
+      <c r="L135">
+        <v>35.1</v>
+      </c>
+      <c r="M135">
+        <v>37.53</v>
+      </c>
+      <c r="N135">
+        <v>40.11</v>
+      </c>
+      <c r="O135">
+        <v>42.07</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15">
+      <c r="A136" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C136" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D136">
+        <v>44.04</v>
+      </c>
+      <c r="E136">
+        <v>47.55</v>
+      </c>
+      <c r="F136">
+        <v>52.58</v>
+      </c>
+      <c r="G136">
+        <v>58.05</v>
+      </c>
+      <c r="H136">
+        <v>62.57</v>
+      </c>
+      <c r="I136">
+        <v>64.95</v>
+      </c>
+      <c r="J136">
+        <v>64.73</v>
+      </c>
+      <c r="K136">
+        <v>64.33</v>
+      </c>
+      <c r="L136">
+        <v>63.71</v>
+      </c>
+      <c r="M136">
+        <v>62.69</v>
+      </c>
+      <c r="N136">
+        <v>62.32</v>
+      </c>
+      <c r="O136">
+        <v>61.43</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15">
+      <c r="A137" t="s">
+        <v>24</v>
+      </c>
+      <c r="B137" t="s">
         <v>23</v>
       </c>
-      <c r="C129">
+      <c r="C137">
+        <v>2013</v>
+      </c>
+      <c r="D137">
+        <v>4.58</v>
+      </c>
+      <c r="E137">
+        <v>4.7</v>
+      </c>
+      <c r="F137">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="G137">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="H137">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="I137">
+        <v>4.76</v>
+      </c>
+      <c r="J137">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="K137">
+        <v>4.68</v>
+      </c>
+      <c r="L137">
+        <v>4.53</v>
+      </c>
+      <c r="M137">
+        <v>4.37</v>
+      </c>
+      <c r="N137">
+        <v>4.33</v>
+      </c>
+      <c r="O137">
+        <v>4.34</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15">
+      <c r="A138" t="s">
+        <v>24</v>
+      </c>
+      <c r="B138" t="s">
+        <v>23</v>
+      </c>
+      <c r="C138">
+        <v>2014</v>
+      </c>
+      <c r="D138">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="E138">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F138">
+        <v>4.74</v>
+      </c>
+      <c r="G138">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="H138">
+        <v>5.35</v>
+      </c>
+      <c r="I138">
+        <v>5.63</v>
+      </c>
+      <c r="J138">
+        <v>5.76</v>
+      </c>
+      <c r="K138">
+        <v>5.85</v>
+      </c>
+      <c r="L138">
+        <v>5.92</v>
+      </c>
+      <c r="M138">
+        <v>5.94</v>
+      </c>
+      <c r="N138">
+        <v>6.02</v>
+      </c>
+      <c r="O138">
+        <v>6.16</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15">
+      <c r="A139" t="s">
+        <v>24</v>
+      </c>
+      <c r="B139" t="s">
+        <v>23</v>
+      </c>
+      <c r="C139">
+        <v>2015</v>
+      </c>
+      <c r="D139">
+        <v>6.5</v>
+      </c>
+      <c r="E139">
+        <v>7.41</v>
+      </c>
+      <c r="F139">
+        <v>11.33</v>
+      </c>
+      <c r="G139">
+        <v>11.33</v>
+      </c>
+      <c r="H139">
+        <v>10.71</v>
+      </c>
+      <c r="I139">
+        <v>10</v>
+      </c>
+      <c r="J139">
+        <v>9.66</v>
+      </c>
+      <c r="K139">
+        <v>9.3699999999999992</v>
+      </c>
+      <c r="L139">
+        <v>9.1199999999999992</v>
+      </c>
+      <c r="M139">
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="N139">
+        <v>8.89</v>
+      </c>
+      <c r="O139">
+        <v>9.14</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15">
+      <c r="A140" t="s">
+        <v>24</v>
+      </c>
+      <c r="B140" t="s">
+        <v>23</v>
+      </c>
+      <c r="C140">
+        <v>2016</v>
+      </c>
+      <c r="D140">
+        <v>9.18</v>
+      </c>
+      <c r="E140">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="F140">
+        <v>9.14</v>
+      </c>
+      <c r="G140">
+        <v>9.16</v>
+      </c>
+      <c r="H140">
+        <v>9.1300000000000008</v>
+      </c>
+      <c r="I140">
+        <v>9.1199999999999992</v>
+      </c>
+      <c r="J140">
+        <v>9.1199999999999992</v>
+      </c>
+      <c r="K140">
+        <v>9.08</v>
+      </c>
+      <c r="L140">
+        <v>9.01</v>
+      </c>
+      <c r="M140">
+        <v>9.06</v>
+      </c>
+      <c r="N140">
+        <v>9.15</v>
+      </c>
+      <c r="O140">
+        <v>9.2200000000000006</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15">
+      <c r="A141" t="s">
+        <v>24</v>
+      </c>
+      <c r="B141" t="s">
+        <v>23</v>
+      </c>
+      <c r="C141">
+        <v>2017</v>
+      </c>
+      <c r="D141">
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="E141">
+        <v>8.68</v>
+      </c>
+      <c r="F141">
+        <v>8.94</v>
+      </c>
+      <c r="G141">
+        <v>9.08</v>
+      </c>
+      <c r="H141">
+        <v>9.15</v>
+      </c>
+      <c r="I141">
+        <v>9.16</v>
+      </c>
+      <c r="J141">
+        <v>9.17</v>
+      </c>
+      <c r="K141">
+        <v>9.1199999999999992</v>
+      </c>
+      <c r="L141">
+        <v>9.19</v>
+      </c>
+      <c r="M141">
+        <v>9.2100000000000009</v>
+      </c>
+      <c r="N141">
+        <v>9.32</v>
+      </c>
+      <c r="O141">
+        <v>9.44</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15">
+      <c r="A142" t="s">
+        <v>24</v>
+      </c>
+      <c r="B142" t="s">
+        <v>23</v>
+      </c>
+      <c r="C142">
+        <v>2018</v>
+      </c>
+      <c r="D142">
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="E142">
+        <v>9.65</v>
+      </c>
+      <c r="F142">
+        <v>9.74</v>
+      </c>
+      <c r="G142">
+        <v>9.7899999999999991</v>
+      </c>
+      <c r="H142">
+        <v>9.8800000000000008</v>
+      </c>
+      <c r="I142">
+        <v>9.99</v>
+      </c>
+      <c r="J142">
+        <v>10.039999999999999</v>
+      </c>
+      <c r="K142">
+        <v>10.23</v>
+      </c>
+      <c r="L142">
+        <v>10.74</v>
+      </c>
+      <c r="M142">
+        <v>11.1</v>
+      </c>
+      <c r="N142">
+        <v>11.24</v>
+      </c>
+      <c r="O142">
+        <v>11.34</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15">
+      <c r="A143" t="s">
+        <v>24</v>
+      </c>
+      <c r="B143" t="s">
+        <v>23</v>
+      </c>
+      <c r="C143">
+        <v>2019</v>
+      </c>
+      <c r="D143">
+        <v>11.3621357047475</v>
+      </c>
+      <c r="E143">
+        <v>11.5</v>
+      </c>
+      <c r="F143">
+        <v>11.64</v>
+      </c>
+      <c r="G143">
+        <v>11.71</v>
+      </c>
+      <c r="H143">
+        <v>11.82</v>
+      </c>
+      <c r="I143">
+        <v>11.83</v>
+      </c>
+      <c r="J143">
+        <v>11.84</v>
+      </c>
+      <c r="K143">
+        <v>11.74</v>
+      </c>
+      <c r="L143">
+        <v>11.65</v>
+      </c>
+      <c r="M143">
+        <v>11.47</v>
+      </c>
+      <c r="N143">
+        <v>11.28</v>
+      </c>
+      <c r="O143">
+        <v>11.22</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15">
+      <c r="A144" t="s">
+        <v>24</v>
+      </c>
+      <c r="B144" t="s">
+        <v>23</v>
+      </c>
+      <c r="C144">
         <v>2020</v>
       </c>
-      <c r="D129">
+      <c r="D144">
         <v>11.1</v>
       </c>
-      <c r="E129">
+      <c r="E144">
         <v>11.18</v>
       </c>
-      <c r="F129">
+      <c r="F144">
         <v>11.34</v>
       </c>
-      <c r="G129">
+      <c r="G144">
         <v>11.6</v>
       </c>
-      <c r="H129">
+      <c r="H144">
         <v>11.75</v>
       </c>
-      <c r="I129">
+      <c r="I144">
         <v>11.79</v>
       </c>
-      <c r="J129">
+      <c r="J144">
         <v>11.67</v>
       </c>
-      <c r="K129">
+      <c r="K144">
         <v>11.57</v>
       </c>
-      <c r="L129">
+      <c r="L144">
         <v>11.43</v>
       </c>
-      <c r="M129">
+      <c r="M144">
         <v>11.61</v>
       </c>
-      <c r="N129">
+      <c r="N144">
         <v>12.31</v>
       </c>
-      <c r="O129">
+      <c r="O144">
         <v>12.7</v>
       </c>
     </row>
-    <row r="130" spans="1:15">
-      <c r="C130" s="2"/>
-    </row>
-    <row r="131" spans="1:15">
-      <c r="C131" s="1"/>
-    </row>
-    <row r="132" spans="1:15">
-      <c r="C132" s="1"/>
-    </row>
-    <row r="133" spans="1:15">
-      <c r="C133" s="1"/>
-    </row>
-    <row r="134" spans="1:15">
-      <c r="C134" s="1"/>
-    </row>
-    <row r="135" spans="1:15">
-      <c r="C135" s="3"/>
-    </row>
-    <row r="136" spans="1:15">
-      <c r="C136" s="3"/>
-    </row>
-    <row r="137" spans="1:15">
-      <c r="C137" s="3"/>
+    <row r="145" spans="1:15">
+      <c r="A145" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C145" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D145">
+        <v>13.18</v>
+      </c>
+      <c r="E145">
+        <v>13.75</v>
+      </c>
+      <c r="F145">
+        <v>14.14</v>
+      </c>
+      <c r="G145">
+        <v>14.49</v>
+      </c>
+      <c r="H145">
+        <v>14.38</v>
+      </c>
+      <c r="I145">
+        <v>14.33</v>
+      </c>
+      <c r="J145">
+        <v>14.25</v>
+      </c>
+      <c r="K145">
+        <v>14.3</v>
+      </c>
+      <c r="L145">
+        <v>14.38</v>
+      </c>
+      <c r="M145">
+        <v>14.48</v>
+      </c>
+      <c r="N145">
+        <v>14.66</v>
+      </c>
+      <c r="O145">
+        <v>15.01</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15">
+      <c r="C146" s="1"/>
+    </row>
+    <row r="147" spans="1:15">
+      <c r="C147" s="1"/>
+    </row>
+    <row r="148" spans="1:15">
+      <c r="C148" s="1"/>
+    </row>
+    <row r="149" spans="1:15">
+      <c r="C149" s="1"/>
+    </row>
+    <row r="150" spans="1:15">
+      <c r="C150" s="2"/>
+    </row>
+    <row r="151" spans="1:15">
+      <c r="C151" s="2"/>
+    </row>
+    <row r="152" spans="1:15">
+      <c r="C152" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
